--- a/Python ETL/BASE_DADOS1.2.xlsx
+++ b/Python ETL/BASE_DADOS1.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolineamarante/Documents/gerenciamento-de-salas-V0.1/Python ETL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaac\Documents\GitHub\gerenciamento-de-salas-V0.1\Python ETL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1432CDAD-4EF2-2E46-9FAA-3BAC72EACC5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2707444F-1202-4B31-9383-2F3A711AEEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14940" activeTab="7" xr2:uid="{DE615C08-F97B-4A36-9702-3D0A64471026}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15750" activeTab="1" xr2:uid="{DE615C08-F97B-4A36-9702-3D0A64471026}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Final_table" sheetId="7" r:id="rId9"/>
     <sheet name="Sheet1" sheetId="15" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="177">
   <si>
     <t>ID</t>
   </si>
@@ -342,12 +347,6 @@
     <t>Nome_completo</t>
   </si>
   <si>
-    <t>id_perfil_usuario</t>
-  </si>
-  <si>
-    <t>lotação max</t>
-  </si>
-  <si>
     <t>dia_da_semana</t>
   </si>
   <si>
@@ -565,6 +564,18 @@
   </si>
   <si>
     <t>Pedro Marcelo</t>
+  </si>
+  <si>
+    <t>disciplina</t>
+  </si>
+  <si>
+    <t>andar</t>
+  </si>
+  <si>
+    <t>capacidade</t>
+  </si>
+  <si>
+    <t>descricao</t>
   </si>
 </sst>
 </file>
@@ -572,11 +583,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="00000"/>
-    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="00000"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1482,7 +1493,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1548,7 +1559,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1571,7 +1582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1616,22 +1627,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1655,7 +1666,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1676,10 +1687,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1748,7 +1759,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1910,33 +1921,75 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="14" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="14" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="14" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="14" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2022,9 +2075,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2037,169 +2087,27 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDBC9FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="54">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2212,36 +2120,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <color theme="1"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <numFmt numFmtId="166" formatCode="h:mm"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2341,13 +2226,20 @@
       <font>
         <color theme="1"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
         <color theme="1"/>
       </font>
-      <numFmt numFmtId="166" formatCode="h:mm;@"/>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="h:mm;@"/>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
@@ -2382,6 +2274,14 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2394,6 +2294,14 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2404,6 +2312,112 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDBC9FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2503,16 +2517,16 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Roxinho02" pivot="0" count="7" xr9:uid="{28443C20-4477-4115-8EB4-7840877A42B5}">
-      <tableStyleElement type="wholeTable" dxfId="52"/>
-      <tableStyleElement type="headerRow" dxfId="51"/>
-      <tableStyleElement type="totalRow" dxfId="50"/>
-      <tableStyleElement type="firstColumn" dxfId="49"/>
-      <tableStyleElement type="lastColumn" dxfId="48"/>
-      <tableStyleElement type="firstRowStripe" dxfId="47"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="46"/>
+      <tableStyleElement type="wholeTable" dxfId="53"/>
+      <tableStyleElement type="headerRow" dxfId="52"/>
+      <tableStyleElement type="totalRow" dxfId="51"/>
+      <tableStyleElement type="firstColumn" dxfId="50"/>
+      <tableStyleElement type="lastColumn" dxfId="49"/>
+      <tableStyleElement type="firstRowStripe" dxfId="48"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="47"/>
     </tableStyle>
     <tableStyle name="Roxito" pivot="0" count="1" xr9:uid="{0DEABB24-16FB-41C1-A6F4-4FDE4C9CAD1B}">
-      <tableStyleElement type="wholeTable" dxfId="45"/>
+      <tableStyleElement type="wholeTable" dxfId="46"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2541,14 +2555,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A4019C6-D883-41A2-999D-2744EA4BE6DF}" name="Tabela1" displayName="Tabela1" ref="B3:C48" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A4019C6-D883-41A2-999D-2744EA4BE6DF}" name="Tabela1" displayName="Tabela1" ref="B3:C48" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="B3:C48" xr:uid="{8A4019C6-D883-41A2-999D-2744EA4BE6DF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:B33">
     <sortCondition ref="B2:B32"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{0E809A91-6DA4-41D9-BE8C-F46AB35279E6}" name="Descrição" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{F07E13E2-7EE5-424D-9E26-D3E774A98EBC}" name="ID" dataDxfId="13">
+    <tableColumn id="2" xr3:uid="{0E809A91-6DA4-41D9-BE8C-F46AB35279E6}" name="Descrição" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{F07E13E2-7EE5-424D-9E26-D3E774A98EBC}" name="ID" dataDxfId="42">
       <calculatedColumnFormula>ROW() - 3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2557,107 +2571,108 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4CCED0C4-186F-4B94-95F1-8BF469EDCCB6}" name="Tabela3" displayName="Tabela3" ref="E3:H22" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4CCED0C4-186F-4B94-95F1-8BF469EDCCB6}" name="Tabela3" displayName="Tabela3" ref="E3:H22" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="E3:H22" xr:uid="{4CCED0C4-186F-4B94-95F1-8BF469EDCCB6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E4:H21">
     <sortCondition ref="E3:E21"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{2E2CB830-36E8-44F7-9427-1F35E41A76F0}" name="Nome_completo" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{D0CF7882-07DC-4D31-9F0E-77B239AE398E}" name="ID" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{2E2CB830-36E8-44F7-9427-1F35E41A76F0}" name="Nome_completo" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{D0CF7882-07DC-4D31-9F0E-77B239AE398E}" name="ID" dataDxfId="38">
       <calculatedColumnFormula>ROW() - 3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{937FA825-31EC-F242-A513-A2A2CED1A569}" name="surname" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{A7C32C8B-AA6C-42C2-9F4B-F110E14FF8D2}" name="id_perfil_usuario" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{937FA825-31EC-F242-A513-A2A2CED1A569}" name="surname" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{A7C32C8B-AA6C-42C2-9F4B-F110E14FF8D2}" name="disciplina" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="Roxinho02" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{807001E1-7A87-46E5-9656-F129EF20E417}" name="Tabela36" displayName="Tabela36" ref="N3:O9" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
-  <autoFilter ref="N3:O9" xr:uid="{807001E1-7A87-46E5-9656-F129EF20E417}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{807001E1-7A87-46E5-9656-F129EF20E417}" name="Tabela36" displayName="Tabela36" ref="O3:P9" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="O3:P9" xr:uid="{807001E1-7A87-46E5-9656-F129EF20E417}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{1774CE53-E1CF-4010-9662-BD734D06A010}" name="Nome_completo" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{E67AAC5D-D142-4886-B378-671F7953A1E2}" name="ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{1774CE53-E1CF-4010-9662-BD734D06A010}" name="descricao" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{E67AAC5D-D142-4886-B378-671F7953A1E2}" name="ID" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="Roxinho02" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7FF19C33-A3DE-40A5-98DB-B4D6067F7C6C}" name="Tabela369" displayName="Tabela369" ref="Q3:R8" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="Q3:R8" xr:uid="{7FF19C33-A3DE-40A5-98DB-B4D6067F7C6C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7FF19C33-A3DE-40A5-98DB-B4D6067F7C6C}" name="Tabela369" displayName="Tabela369" ref="R3:S8" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="R3:S8" xr:uid="{7FF19C33-A3DE-40A5-98DB-B4D6067F7C6C}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{F08B08A5-E565-44CC-B5C6-A5C0897AFDC0}" name="dia_da_semana" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{E808B2F6-D29C-4A69-A1EC-8AA10546DA34}" name="ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{F08B08A5-E565-44CC-B5C6-A5C0897AFDC0}" name="dia_da_semana" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{E808B2F6-D29C-4A69-A1EC-8AA10546DA34}" name="ID" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="Roxinho02" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D8FE507D-8085-4809-BD54-B70D9CC85BCE}" name="Tabela4" displayName="Tabela4" ref="J3:L29" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
-  <autoFilter ref="J3:L29" xr:uid="{D8FE507D-8085-4809-BD54-B70D9CC85BCE}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{91F5CE3F-BB73-44B7-B964-8429395EFEE8}" name="Descrição" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{1DC0F55D-0FA7-4CD3-804F-7227C5374707}" name="ID" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{0EC79313-C793-493E-9D1E-785050B5F471}" name="lotação max" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D8FE507D-8085-4809-BD54-B70D9CC85BCE}" name="Tabela4" displayName="Tabela4" ref="J3:M29" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="J3:M29" xr:uid="{D8FE507D-8085-4809-BD54-B70D9CC85BCE}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{91F5CE3F-BB73-44B7-B964-8429395EFEE8}" name="Descrição" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5932D04E-DF0F-495F-8C22-081556AD4A52}" name="andar" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{1DC0F55D-0FA7-4CD3-804F-7227C5374707}" name="ID" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{0EC79313-C793-493E-9D1E-785050B5F471}" name="capacidade" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Roxinho02" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E524A613-D459-4FAA-8A16-BC2D51D6DF71}" name="Tabela5" displayName="Tabela5" ref="C2:K127" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E524A613-D459-4FAA-8A16-BC2D51D6DF71}" name="Tabela5" displayName="Tabela5" ref="C2:K127" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24">
   <autoFilter ref="C2:K127" xr:uid="{E524A613-D459-4FAA-8A16-BC2D51D6DF71}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{39F4F863-361A-4097-A71D-81993688AD50}" name="horario_inicio" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{6642C43F-C7B4-470B-931B-362B89ED4F86}" name=" horario_fim" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{A2B8FE6C-3EBE-43F6-93D1-6A221840E146}" name="dia_da_semana" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{1943EA49-A764-4228-9F7C-C967542F0F98}" name=" id_professor" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{39F4F863-361A-4097-A71D-81993688AD50}" name="horario_inicio" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{6642C43F-C7B4-470B-931B-362B89ED4F86}" name=" horario_fim" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{A2B8FE6C-3EBE-43F6-93D1-6A221840E146}" name="dia_da_semana" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{1943EA49-A764-4228-9F7C-C967542F0F98}" name=" id_professor" dataDxfId="19">
       <calculatedColumnFormula>BASE!C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6BD3EDF5-7A24-41B8-9093-E0D7D5F18462}" name=" id_disciplina" dataDxfId="30">
+    <tableColumn id="4" xr3:uid="{6BD3EDF5-7A24-41B8-9093-E0D7D5F18462}" name=" id_disciplina" dataDxfId="18">
       <calculatedColumnFormula>BASE!C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D2D996B1-6B85-4A48-825C-B2896FEEFE3F}" name=" semestre" dataDxfId="29">
+    <tableColumn id="5" xr3:uid="{D2D996B1-6B85-4A48-825C-B2896FEEFE3F}" name=" semestre" dataDxfId="17">
       <calculatedColumnFormula>BASE!C1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CDAC6BBD-77F8-4FF9-8731-1BCF0548894E}" name=" id_sala" dataDxfId="28">
+    <tableColumn id="6" xr3:uid="{CDAC6BBD-77F8-4FF9-8731-1BCF0548894E}" name=" id_sala" dataDxfId="16">
       <calculatedColumnFormula>'1_SEMESTRE'!A2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{48CB2A46-EE33-470A-B703-34034CC86EF4}" name=" created_at" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{673D59D7-6161-43E0-9774-3F080959B3F1}" name=" updated_at" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{48CB2A46-EE33-470A-B703-34034CC86EF4}" name=" created_at" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{673D59D7-6161-43E0-9774-3F080959B3F1}" name=" updated_at" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="Roxinho02" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{905233CA-393E-493C-97CB-B033B06F1F50}" name="Table9" displayName="Table9" ref="M4:O9" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{905233CA-393E-493C-97CB-B033B06F1F50}" name="Table9" displayName="Table9" ref="M4:O9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="M4:O9" xr:uid="{905233CA-393E-493C-97CB-B033B06F1F50}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F8A5ACA3-FD24-448E-B295-A798375CA301}" name="Linhas" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{4E8F140F-BC3B-4609-B4BA-20CC274422EB}" name="I" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{7EB73990-5483-4C0D-A5F0-FA67EB611AD2}" name="K" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{F8A5ACA3-FD24-448E-B295-A798375CA301}" name="Linhas" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{4E8F140F-BC3B-4609-B4BA-20CC274422EB}" name="I" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{7EB73990-5483-4C0D-A5F0-FA67EB611AD2}" name="K" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="Roxinho02" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1C663513-07B9-4CD1-834D-120E6AF010FD}" name="Grade8" displayName="Grade8" ref="A2:A52" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1C663513-07B9-4CD1-834D-120E6AF010FD}" name="Grade8" displayName="Grade8" ref="A2:A52" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="A2:A52" xr:uid="{1C663513-07B9-4CD1-834D-120E6AF010FD}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{020E0A2B-23AA-4DE1-9E0E-62A197810BD6}" name="Aulas" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{020E0A2B-23AA-4DE1-9E0E-62A197810BD6}" name="Aulas" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="Roxinho02" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2956,35 +2971,35 @@
   <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="79" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="32.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="32.83203125" style="2" customWidth="1"/>
-    <col min="13" max="14" width="19.6640625" style="2"/>
+    <col min="2" max="2" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="79" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="32.85546875" style="2" customWidth="1"/>
+    <col min="13" max="14" width="19.7109375" style="2"/>
     <col min="15" max="15" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="19.6640625" style="2"/>
+    <col min="16" max="16" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="19.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="25.5" customHeight="1">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -2998,27 +3013,27 @@
         <f>VLOOKUP(E1,Tabela36[#All],2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E1" s="170" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="171"/>
-      <c r="O1" s="162" t="s">
+      <c r="E1" s="184" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="185"/>
+      <c r="O1" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="164"/>
-    </row>
-    <row r="2" spans="1:21" s="5" customFormat="1" ht="17">
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="178"/>
+    </row>
+    <row r="2" spans="1:21" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="e">
         <f>VLOOKUP(B2,Tabela4[#All],2,FALSE)</f>
         <v>#N/A</v>
@@ -3056,10 +3071,10 @@
       <c r="L2" s="35">
         <v>6</v>
       </c>
-      <c r="O2" s="159" t="s">
+      <c r="O2" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="160"/>
+      <c r="P2" s="174"/>
       <c r="Q2" s="4">
         <v>2</v>
       </c>
@@ -3076,11 +3091,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="5" customFormat="1" ht="34">
-      <c r="A3" s="180" t="s">
+    <row r="3" spans="1:21" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="161">
+      <c r="B3" s="175">
         <v>0.78125</v>
       </c>
       <c r="C3" s="23">
@@ -3124,9 +3139,9 @@
       <c r="S3" s="4"/>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:21" ht="16">
-      <c r="A4" s="180"/>
-      <c r="B4" s="161"/>
+    <row r="4" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="194"/>
+      <c r="B4" s="175"/>
       <c r="C4" s="23">
         <f>VLOOKUP(D4,Tabela3[#All],2,FALSE)</f>
         <v>13</v>
@@ -3172,11 +3187,11 @@
       <c r="S4" s="1"/>
       <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:21" ht="34">
-      <c r="A5" s="180" t="s">
+    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="161">
+      <c r="B5" s="175">
         <v>0.81597222222222221</v>
       </c>
       <c r="C5" s="23">
@@ -3220,9 +3235,9 @@
       <c r="S5" s="1"/>
       <c r="U5" s="9"/>
     </row>
-    <row r="6" spans="1:21" ht="16">
-      <c r="A6" s="180"/>
-      <c r="B6" s="161"/>
+    <row r="6" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="194"/>
+      <c r="B6" s="175"/>
       <c r="C6" s="23" t="e">
         <f>VLOOKUP(D6,Tabela3[#All],2,FALSE)</f>
         <v>#N/A</v>
@@ -3270,36 +3285,36 @@
       <c r="T6" s="1"/>
       <c r="U6" s="9"/>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="172" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="175"/>
-      <c r="O7" s="165" t="s">
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="187"/>
+      <c r="K7" s="188"/>
+      <c r="L7" s="189"/>
+      <c r="O7" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="166"/>
-      <c r="S7" s="166"/>
-      <c r="T7" s="166"/>
-      <c r="U7" s="167"/>
-    </row>
-    <row r="8" spans="1:21" ht="34">
-      <c r="A8" s="180" t="s">
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="180"/>
+      <c r="U7" s="181"/>
+    </row>
+    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="161">
+      <c r="B8" s="175">
         <v>0.85763888888888884</v>
       </c>
       <c r="C8" s="23">
@@ -3349,9 +3364,9 @@
       <c r="T8" s="1"/>
       <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="1:21" ht="16">
-      <c r="A9" s="180"/>
-      <c r="B9" s="161"/>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="194"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="23" t="e">
         <f>VLOOKUP(D9,Tabela3[#All],2,FALSE)</f>
         <v>#N/A</v>
@@ -3395,11 +3410,11 @@
       <c r="T9" s="1"/>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="1:21" ht="34">
-      <c r="A10" s="180" t="s">
+    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="161">
+      <c r="B10" s="175">
         <v>0.89236111111111116</v>
       </c>
       <c r="C10" s="23">
@@ -3449,9 +3464,9 @@
       <c r="T10" s="1"/>
       <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="1:21" ht="16">
-      <c r="A11" s="180"/>
-      <c r="B11" s="161"/>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="194"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="23" t="e">
         <f>VLOOKUP(D11,Tabela3[#All],2,FALSE)</f>
         <v>#N/A</v>
@@ -3495,11 +3510,11 @@
       <c r="T11" s="18"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" ht="34">
-      <c r="A12" s="180" t="s">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="161">
+      <c r="B12" s="175">
         <v>0.92708333333333337</v>
       </c>
       <c r="C12" s="23">
@@ -3549,9 +3564,9 @@
       <c r="T12" s="12"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="1:21" ht="16">
-      <c r="A13" s="181"/>
-      <c r="B13" s="182"/>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="195"/>
+      <c r="B13" s="196"/>
       <c r="C13" s="54" t="e">
         <f>VLOOKUP(D13,Tabela3[#All],2,FALSE)</f>
         <v>#N/A</v>
@@ -3588,36 +3603,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="21">
-      <c r="A14" s="176" t="s">
+    <row r="14" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="177"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="178"/>
-      <c r="L14" s="179"/>
-      <c r="O14" s="162" t="s">
+      <c r="B14" s="191"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="191"/>
+      <c r="E14" s="191"/>
+      <c r="F14" s="191"/>
+      <c r="G14" s="191"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="191"/>
+      <c r="J14" s="191"/>
+      <c r="K14" s="192"/>
+      <c r="L14" s="193"/>
+      <c r="O14" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="P14" s="163"/>
-      <c r="Q14" s="163"/>
-      <c r="R14" s="163"/>
-      <c r="S14" s="163"/>
-      <c r="T14" s="163"/>
-      <c r="U14" s="164"/>
-    </row>
-    <row r="15" spans="1:21" ht="16">
-      <c r="A15" s="159" t="s">
+      <c r="P14" s="177"/>
+      <c r="Q14" s="177"/>
+      <c r="R14" s="177"/>
+      <c r="S14" s="177"/>
+      <c r="T14" s="177"/>
+      <c r="U14" s="178"/>
+    </row>
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="160"/>
+      <c r="B15" s="174"/>
       <c r="C15" s="15"/>
       <c r="D15" s="4">
         <v>2</v>
@@ -3638,10 +3653,10 @@
       <c r="L15" s="7">
         <v>6</v>
       </c>
-      <c r="O15" s="159" t="s">
+      <c r="O15" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="160"/>
+      <c r="P15" s="174"/>
       <c r="Q15" s="4">
         <v>2</v>
       </c>
@@ -3658,7 +3673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="32">
+    <row r="16" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>6</v>
       </c>
@@ -3691,7 +3706,7 @@
       </c>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21" ht="32">
+    <row r="17" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>9</v>
       </c>
@@ -3723,32 +3738,32 @@
       <c r="T17" s="1"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="165" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="166"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="168"/>
-      <c r="L18" s="167"/>
-      <c r="O18" s="165" t="s">
+      <c r="B18" s="180"/>
+      <c r="C18" s="180"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="180"/>
+      <c r="J18" s="180"/>
+      <c r="K18" s="182"/>
+      <c r="L18" s="181"/>
+      <c r="O18" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="P18" s="166"/>
-      <c r="Q18" s="166"/>
-      <c r="R18" s="166"/>
-      <c r="S18" s="166"/>
-      <c r="T18" s="166"/>
-      <c r="U18" s="167"/>
-    </row>
-    <row r="19" spans="1:21" ht="32">
+      <c r="P18" s="180"/>
+      <c r="Q18" s="180"/>
+      <c r="R18" s="180"/>
+      <c r="S18" s="180"/>
+      <c r="T18" s="180"/>
+      <c r="U18" s="181"/>
+    </row>
+    <row r="19" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>13</v>
       </c>
@@ -3780,7 +3795,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="1:21" ht="32">
+    <row r="20" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
@@ -3812,7 +3827,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="1:21" ht="32">
+    <row r="21" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>16</v>
       </c>
@@ -3845,36 +3860,36 @@
       <c r="T21" s="12"/>
       <c r="U21" s="13"/>
     </row>
-    <row r="23" spans="1:21" ht="21">
-      <c r="A23" s="162" t="s">
+    <row r="23" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="163"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="169"/>
-      <c r="L23" s="164"/>
-      <c r="O23" s="162" t="s">
+      <c r="B23" s="177"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="183"/>
+      <c r="L23" s="178"/>
+      <c r="O23" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="P23" s="163"/>
-      <c r="Q23" s="163"/>
-      <c r="R23" s="163"/>
-      <c r="S23" s="163"/>
-      <c r="T23" s="163"/>
-      <c r="U23" s="164"/>
-    </row>
-    <row r="24" spans="1:21" ht="16">
-      <c r="A24" s="159" t="s">
+      <c r="P23" s="177"/>
+      <c r="Q23" s="177"/>
+      <c r="R23" s="177"/>
+      <c r="S23" s="177"/>
+      <c r="T23" s="177"/>
+      <c r="U23" s="178"/>
+    </row>
+    <row r="24" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="160"/>
+      <c r="B24" s="174"/>
       <c r="C24" s="15"/>
       <c r="D24" s="4">
         <v>2</v>
@@ -3895,10 +3910,10 @@
       <c r="L24" s="7">
         <v>6</v>
       </c>
-      <c r="O24" s="159" t="s">
+      <c r="O24" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="P24" s="160"/>
+      <c r="P24" s="174"/>
       <c r="Q24" s="4">
         <v>2</v>
       </c>
@@ -3915,7 +3930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="16">
+    <row r="25" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
@@ -3937,7 +3952,7 @@
       <c r="S25" s="1"/>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" spans="1:21" ht="16">
+    <row r="26" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>9</v>
       </c>
@@ -3966,32 +3981,32 @@
       <c r="T26" s="1"/>
       <c r="U26" s="9"/>
     </row>
-    <row r="27" spans="1:21">
-      <c r="A27" s="165" t="s">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="166"/>
-      <c r="E27" s="166"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="166"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="166"/>
-      <c r="K27" s="168"/>
-      <c r="L27" s="167"/>
-      <c r="O27" s="165" t="s">
+      <c r="B27" s="180"/>
+      <c r="C27" s="180"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="180"/>
+      <c r="K27" s="182"/>
+      <c r="L27" s="181"/>
+      <c r="O27" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="P27" s="166"/>
-      <c r="Q27" s="166"/>
-      <c r="R27" s="166"/>
-      <c r="S27" s="166"/>
-      <c r="T27" s="166"/>
-      <c r="U27" s="167"/>
-    </row>
-    <row r="28" spans="1:21" ht="16">
+      <c r="P27" s="180"/>
+      <c r="Q27" s="180"/>
+      <c r="R27" s="180"/>
+      <c r="S27" s="180"/>
+      <c r="T27" s="180"/>
+      <c r="U27" s="181"/>
+    </row>
+    <row r="28" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>13</v>
       </c>
@@ -4020,7 +4035,7 @@
       <c r="T28" s="1"/>
       <c r="U28" s="9"/>
     </row>
-    <row r="29" spans="1:21" ht="16">
+    <row r="29" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>15</v>
       </c>
@@ -4049,7 +4064,7 @@
       <c r="T29" s="1"/>
       <c r="U29" s="9"/>
     </row>
-    <row r="30" spans="1:21" ht="16">
+    <row r="30" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>16</v>
       </c>
@@ -4078,7 +4093,7 @@
       <c r="T30" s="12"/>
       <c r="U30" s="13"/>
     </row>
-    <row r="34" spans="4:11">
+    <row r="34" spans="4:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D34" s="21" t="s">
         <v>8</v>
       </c>
@@ -4092,7 +4107,7 @@
       <c r="J34"/>
       <c r="K34"/>
     </row>
-    <row r="35" spans="4:11">
+    <row r="35" spans="4:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D35" s="22" t="s">
         <v>26</v>
       </c>
@@ -4106,7 +4121,7 @@
       <c r="J35"/>
       <c r="K35"/>
     </row>
-    <row r="36" spans="4:11">
+    <row r="36" spans="4:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D36" s="21" t="s">
         <v>14</v>
       </c>
@@ -4120,7 +4135,7 @@
       <c r="J36"/>
       <c r="K36"/>
     </row>
-    <row r="37" spans="4:11">
+    <row r="37" spans="4:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D37" s="22" t="s">
         <v>27</v>
       </c>
@@ -4134,7 +4149,7 @@
       <c r="J37"/>
       <c r="K37"/>
     </row>
-    <row r="38" spans="4:11">
+    <row r="38" spans="4:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D38" s="21" t="s">
         <v>28</v>
       </c>
@@ -4148,7 +4163,7 @@
       <c r="J38"/>
       <c r="K38"/>
     </row>
-    <row r="39" spans="4:11">
+    <row r="39" spans="4:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D39" s="22" t="s">
         <v>29</v>
       </c>
@@ -4162,7 +4177,7 @@
       <c r="J39"/>
       <c r="K39"/>
     </row>
-    <row r="40" spans="4:11">
+    <row r="40" spans="4:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D40" s="21" t="s">
         <v>30</v>
       </c>
@@ -4176,7 +4191,7 @@
       <c r="J40"/>
       <c r="K40"/>
     </row>
-    <row r="41" spans="4:11">
+    <row r="41" spans="4:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D41" s="22" t="s">
         <v>31</v>
       </c>
@@ -4190,7 +4205,7 @@
       <c r="J41"/>
       <c r="K41"/>
     </row>
-    <row r="42" spans="4:11">
+    <row r="42" spans="4:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D42" s="21" t="s">
         <v>32</v>
       </c>
@@ -4204,7 +4219,7 @@
       <c r="J42"/>
       <c r="K42"/>
     </row>
-    <row r="43" spans="4:11">
+    <row r="43" spans="4:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D43" s="22" t="s">
         <v>33</v>
       </c>
@@ -4218,7 +4233,7 @@
       <c r="J43"/>
       <c r="K43"/>
     </row>
-    <row r="44" spans="4:11">
+    <row r="44" spans="4:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D44" s="21" t="s">
         <v>34</v>
       </c>
@@ -4232,7 +4247,7 @@
       <c r="J44"/>
       <c r="K44"/>
     </row>
-    <row r="45" spans="4:11">
+    <row r="45" spans="4:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D45" s="22" t="s">
         <v>35</v>
       </c>
@@ -4246,7 +4261,7 @@
       <c r="J45"/>
       <c r="K45"/>
     </row>
-    <row r="46" spans="4:11">
+    <row r="46" spans="4:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D46" s="21" t="s">
         <v>36</v>
       </c>
@@ -4260,7 +4275,7 @@
       <c r="J46"/>
       <c r="K46"/>
     </row>
-    <row r="47" spans="4:11">
+    <row r="47" spans="4:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D47" s="22" t="s">
         <v>37</v>
       </c>
@@ -4274,7 +4289,7 @@
       <c r="J47"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="4:11">
+    <row r="48" spans="4:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D48" s="21" t="s">
         <v>38</v>
       </c>
@@ -4288,7 +4303,7 @@
       <c r="J48"/>
       <c r="K48"/>
     </row>
-    <row r="49" spans="4:11">
+    <row r="49" spans="4:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D49" s="22" t="s">
         <v>39</v>
       </c>
@@ -4302,7 +4317,7 @@
       <c r="J49"/>
       <c r="K49"/>
     </row>
-    <row r="50" spans="4:11">
+    <row r="50" spans="4:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D50"/>
       <c r="E50" s="84"/>
       <c r="F50"/>
@@ -4362,7 +4377,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{37CFE276-F568-4E6C-A11C-EB1FA5C8C7B6}">
           <x14:formula1>
-            <xm:f>Mock_Tables!$N$4:$N$9</xm:f>
+            <xm:f>Mock_Tables!$O$4:$O$9</xm:f>
           </x14:formula1>
           <xm:sqref>E1:L1</xm:sqref>
         </x14:dataValidation>
@@ -4386,49 +4401,49 @@
       <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:14">
+    <row r="6" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D6" s="47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>
       </c>
       <c r="F6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" t="s">
         <v>130</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L6" t="s">
         <v>132</v>
       </c>
-      <c r="I6" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="K6" t="s">
-        <v>147</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>134</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" s="48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D7" s="47" t="s">
         <v>136</v>
-      </c>
-      <c r="N6" s="48" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="4:14">
-      <c r="D7" s="47" t="s">
-        <v>138</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4456,15 +4471,15 @@
         <v>1</v>
       </c>
       <c r="M7" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N7" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D8" s="47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -4492,15 +4507,15 @@
         <v>1</v>
       </c>
       <c r="M8" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N8" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D9" s="47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -4528,15 +4543,15 @@
         <v>1</v>
       </c>
       <c r="M9" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N9" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D10" s="47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -4564,15 +4579,15 @@
         <v>1</v>
       </c>
       <c r="M10" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D11" s="47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -4600,15 +4615,15 @@
         <v>1</v>
       </c>
       <c r="M11" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N11" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D12" s="47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E12">
         <v>6</v>
@@ -4636,15 +4651,15 @@
         <v>1</v>
       </c>
       <c r="M12" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N12" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D13" s="47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -4672,15 +4687,15 @@
         <v>1</v>
       </c>
       <c r="M13" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N13" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D14" s="47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E14">
         <v>8</v>
@@ -4708,15 +4723,15 @@
         <v>1</v>
       </c>
       <c r="M14" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N14" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D15" s="47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E15">
         <v>9</v>
@@ -4744,15 +4759,15 @@
         <v>1</v>
       </c>
       <c r="M15" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N15" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D16" s="47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -4780,15 +4795,15 @@
         <v>1</v>
       </c>
       <c r="M16" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N16" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E17">
         <v>11</v>
@@ -4816,15 +4831,15 @@
         <v>1</v>
       </c>
       <c r="M17" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N17" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E18">
         <v>12</v>
@@ -4852,15 +4867,15 @@
         <v>1</v>
       </c>
       <c r="M18" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N18" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E19">
         <v>13</v>
@@ -4888,15 +4903,15 @@
         <v>1</v>
       </c>
       <c r="M19" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N19" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E20">
         <v>14</v>
@@ -4924,15 +4939,15 @@
         <v>1</v>
       </c>
       <c r="M20" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N20" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D21" s="47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E21">
         <v>15</v>
@@ -4960,15 +4975,15 @@
         <v>1</v>
       </c>
       <c r="M21" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N21" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D22" s="47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E22">
         <v>16</v>
@@ -4996,15 +5011,15 @@
         <v>1</v>
       </c>
       <c r="M22" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N22" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D23" s="47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E23">
         <v>17</v>
@@ -5032,15 +5047,15 @@
         <v>1</v>
       </c>
       <c r="M23" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N23" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D24" s="47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E24">
         <v>18</v>
@@ -5068,15 +5083,15 @@
         <v>1</v>
       </c>
       <c r="M24" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N24" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D25" s="47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E25">
         <v>19</v>
@@ -5104,15 +5119,15 @@
         <v>1</v>
       </c>
       <c r="M25" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N25" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D26" s="47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E26">
         <v>20</v>
@@ -5140,15 +5155,15 @@
         <v>1</v>
       </c>
       <c r="M26" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N26" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D27" s="47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E27">
         <v>21</v>
@@ -5176,15 +5191,15 @@
         <v>1</v>
       </c>
       <c r="M27" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N27" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D28" s="47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E28">
         <v>22</v>
@@ -5212,15 +5227,15 @@
         <v>1</v>
       </c>
       <c r="M28" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N28" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D29" s="47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E29">
         <v>23</v>
@@ -5248,15 +5263,15 @@
         <v>1</v>
       </c>
       <c r="M29" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N29" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E30">
         <v>24</v>
@@ -5284,15 +5299,15 @@
         <v>1</v>
       </c>
       <c r="M30" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N30" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="4:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D31" s="47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E31">
         <v>25</v>
@@ -5320,10 +5335,10 @@
         <v>1</v>
       </c>
       <c r="M31" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N31" s="40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5335,27 +5350,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCDD7F4-5CE8-447B-8352-1E8B6ACD69B6}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="39"/>
-    <col min="5" max="5" width="7.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" style="39"/>
-    <col min="7" max="7" width="7.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" style="39"/>
-    <col min="9" max="9" width="7.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.1640625" style="39"/>
-    <col min="11" max="11" width="7.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="21.1640625" style="39"/>
+    <col min="1" max="1" width="8.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="39"/>
+    <col min="5" max="5" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="39"/>
+    <col min="7" max="7" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="39"/>
+    <col min="9" max="9" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="39"/>
+    <col min="11" max="11" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="21.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22">
+    <row r="1" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
@@ -5369,21 +5384,21 @@
         <f>VLOOKUP(E1,Tabela36[#All],2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E1" s="170" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="171"/>
-    </row>
-    <row r="2" spans="1:12" ht="17">
+      <c r="E1" s="184" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="185"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="52">
         <f>VLOOKUP(B2,Tabela4[#All],2,FALSE)</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>40</v>
@@ -5419,11 +5434,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="51">
-      <c r="A3" s="180" t="s">
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="161">
+      <c r="B3" s="175">
         <v>0.78125</v>
       </c>
       <c r="C3" s="23">
@@ -5462,9 +5477,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16">
-      <c r="A4" s="180"/>
-      <c r="B4" s="161"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="194"/>
+      <c r="B4" s="175"/>
       <c r="C4" s="23">
         <f>VLOOKUP(D4,Tabela3[#All],2,FALSE)</f>
         <v>13</v>
@@ -5484,7 +5499,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I4" s="23">
         <f>VLOOKUP(J4,Tabela3[#All],2,FALSE)</f>
@@ -5501,11 +5516,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="34">
-      <c r="A5" s="180" t="s">
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="161">
+      <c r="B5" s="175">
         <v>0.81597222222222221</v>
       </c>
       <c r="C5" s="23">
@@ -5544,9 +5559,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16">
-      <c r="A6" s="180"/>
-      <c r="B6" s="161"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="194"/>
+      <c r="B6" s="175"/>
       <c r="C6" s="23" t="e">
         <f>VLOOKUP(D6,Tabela3[#All],2,FALSE)</f>
         <v>#N/A</v>
@@ -5566,7 +5581,7 @@
         <v>18</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I6" s="23" t="e">
         <f>VLOOKUP(J6,Tabela3[#All],2,FALSE)</f>
@@ -5583,27 +5598,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1">
-      <c r="A7" s="172" t="s">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="175"/>
-    </row>
-    <row r="8" spans="1:12" ht="34">
-      <c r="A8" s="180" t="s">
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="187"/>
+      <c r="K7" s="188"/>
+      <c r="L7" s="189"/>
+    </row>
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="161">
+      <c r="B8" s="175">
         <v>0.85763888888888884</v>
       </c>
       <c r="C8" s="23">
@@ -5618,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G8" s="23">
         <f>VLOOKUP(H8,Tabela1[#All],2,FALSE)</f>
@@ -5642,9 +5657,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="180"/>
-      <c r="B9" s="161"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="194"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="23" t="e">
         <f>VLOOKUP(D9,Tabela3[#All],2,FALSE)</f>
         <v>#N/A</v>
@@ -5657,14 +5672,14 @@
         <v>1</v>
       </c>
       <c r="F9" s="55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G9" s="23">
         <f>VLOOKUP(H9,Tabela3[#All],2,FALSE)</f>
         <v>18</v>
       </c>
       <c r="H9" s="55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I9" s="23" t="e">
         <f>VLOOKUP(J9,Tabela3[#All],2,FALSE)</f>
@@ -5681,11 +5696,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="51">
-      <c r="A10" s="180" t="s">
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="161">
+      <c r="B10" s="175">
         <v>0.89236111111111116</v>
       </c>
       <c r="C10" s="23">
@@ -5724,9 +5739,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16">
-      <c r="A11" s="180"/>
-      <c r="B11" s="161"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="194"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="23" t="e">
         <f>VLOOKUP(D11,Tabela3[#All],2,FALSE)</f>
         <v>#N/A</v>
@@ -5746,7 +5761,7 @@
         <v>18</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I11" s="23" t="e">
         <f>VLOOKUP(J11,Tabela3[#All],2,FALSE)</f>
@@ -5763,11 +5778,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="51">
-      <c r="A12" s="180" t="s">
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="161">
+      <c r="B12" s="175">
         <v>0.92708333333333337</v>
       </c>
       <c r="C12" s="23">
@@ -5806,9 +5821,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16">
-      <c r="A13" s="181"/>
-      <c r="B13" s="182"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="195"/>
+      <c r="B13" s="196"/>
       <c r="C13" s="54" t="e">
         <f>VLOOKUP(D13,Tabela3[#All],2,FALSE)</f>
         <v>#N/A</v>
@@ -5866,7 +5881,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F1D813A6-4BE3-4268-BEDC-929EF2A7E5CC}">
           <x14:formula1>
-            <xm:f>Mock_Tables!$N$4:$N$9</xm:f>
+            <xm:f>Mock_Tables!$O$4:$O$9</xm:f>
           </x14:formula1>
           <xm:sqref>E1:L1</xm:sqref>
         </x14:dataValidation>
@@ -5908,22 +5923,22 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="63" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="63" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="63"/>
-    <col min="5" max="5" width="7.5" style="63" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="63" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="63"/>
-    <col min="7" max="7" width="7.5" style="63" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="63" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="63"/>
-    <col min="9" max="9" width="7.5" style="63" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="63" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="63"/>
-    <col min="11" max="11" width="7.5" style="63" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="63" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="17" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="44">
+    <row r="1" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
@@ -5937,21 +5952,21 @@
         <f>VLOOKUP(E1,Tabela36[#All],2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E1" s="170" t="s">
+      <c r="E1" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="171"/>
-    </row>
-    <row r="2" spans="1:12" ht="17">
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="185"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="52">
         <f>VLOOKUP(B2,Tabela4[#All],2,FALSE)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>47</v>
@@ -5987,11 +6002,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="34">
-      <c r="A3" s="180" t="s">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="161">
+      <c r="B3" s="175">
         <v>0.78125</v>
       </c>
       <c r="C3" s="23">
@@ -6030,9 +6045,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16">
-      <c r="A4" s="180"/>
-      <c r="B4" s="161"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="194"/>
+      <c r="B4" s="175"/>
       <c r="C4" s="23" t="e">
         <f>VLOOKUP(D4,Tabela3[#All],2,FALSE)</f>
         <v>#N/A</v>
@@ -6045,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G4" s="23" t="e">
         <f>VLOOKUP(H4,Tabela3[#All],2,FALSE)</f>
@@ -6069,11 +6084,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="34">
-      <c r="A5" s="180" t="s">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="161">
+      <c r="B5" s="175">
         <v>0.81597222222222221</v>
       </c>
       <c r="C5" s="23">
@@ -6112,9 +6127,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16">
-      <c r="A6" s="180"/>
-      <c r="B6" s="161"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="194"/>
+      <c r="B6" s="175"/>
       <c r="C6" s="23">
         <f>VLOOKUP(D6,Tabela3[#All],2,FALSE)</f>
         <v>2</v>
@@ -6151,27 +6166,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="172" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="175"/>
-    </row>
-    <row r="8" spans="1:12" ht="34">
-      <c r="A8" s="180" t="s">
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="187"/>
+      <c r="K7" s="188"/>
+      <c r="L7" s="189"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="161">
+      <c r="B8" s="175">
         <v>0.85763888888888884</v>
       </c>
       <c r="C8" s="23">
@@ -6210,9 +6225,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="180"/>
-      <c r="B9" s="161"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="194"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="23" t="e">
         <f>VLOOKUP(D9,Tabela3[#All],2,FALSE)</f>
         <v>#N/A</v>
@@ -6232,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I9" s="23">
         <f>VLOOKUP(J9,Tabela3[#All],2,FALSE)</f>
@@ -6249,11 +6264,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="34">
-      <c r="A10" s="180" t="s">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="161">
+      <c r="B10" s="175">
         <v>0.89236111111111116</v>
       </c>
       <c r="C10" s="23">
@@ -6292,9 +6307,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16">
-      <c r="A11" s="180"/>
-      <c r="B11" s="161"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="194"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="23" t="e">
         <f>VLOOKUP(D11,Tabela3[#All],2,FALSE)</f>
         <v>#N/A</v>
@@ -6314,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I11" s="23">
         <f>VLOOKUP(J11,Tabela3[#All],2,FALSE)</f>
@@ -6331,11 +6346,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="34">
-      <c r="A12" s="180" t="s">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="161">
+      <c r="B12" s="175">
         <v>0.92708333333333337</v>
       </c>
       <c r="C12" s="23">
@@ -6374,9 +6389,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16">
-      <c r="A13" s="181"/>
-      <c r="B13" s="182"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="195"/>
+      <c r="B13" s="196"/>
       <c r="C13" s="54" t="e">
         <f>VLOOKUP(D13,Tabela3[#All],2,FALSE)</f>
         <v>#N/A</v>
@@ -6396,7 +6411,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="58" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I13" s="54">
         <f>VLOOKUP(J13,Tabela3[#All],2,FALSE)</f>
@@ -6434,7 +6449,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D45936A3-44E8-4B1B-9B33-869B8B2CAB90}">
           <x14:formula1>
-            <xm:f>Mock_Tables!$N$4:$N$9</xm:f>
+            <xm:f>Mock_Tables!$O$4:$O$9</xm:f>
           </x14:formula1>
           <xm:sqref>E1:L1</xm:sqref>
         </x14:dataValidation>
@@ -6470,15 +6485,15 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="63" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="63" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="63" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="18.1640625" style="63"/>
+    <col min="1" max="1" width="8.28515625" style="63" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="63" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="18.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22">
+    <row r="1" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
@@ -6492,21 +6507,21 @@
         <f>VLOOKUP(E1,Tabela36[#All],2,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E1" s="170" t="s">
+      <c r="E1" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="171"/>
-    </row>
-    <row r="2" spans="1:12" ht="17">
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="185"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="52">
         <f>VLOOKUP(B2,Tabela4[#All],2,FALSE)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>56</v>
@@ -6542,11 +6557,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="34">
-      <c r="A3" s="180" t="s">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="161">
+      <c r="B3" s="175">
         <v>0.78125</v>
       </c>
       <c r="C3" s="23">
@@ -6585,9 +6600,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16">
-      <c r="A4" s="180"/>
-      <c r="B4" s="161"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="194"/>
+      <c r="B4" s="175"/>
       <c r="C4" s="23">
         <f>VLOOKUP(D4,Tabela3[#All],2,FALSE)</f>
         <v>4</v>
@@ -6624,11 +6639,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="34">
-      <c r="A5" s="180" t="s">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="161">
+      <c r="B5" s="175">
         <v>0.81597222222222221</v>
       </c>
       <c r="C5" s="23">
@@ -6667,9 +6682,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16">
-      <c r="A6" s="180"/>
-      <c r="B6" s="161"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="194"/>
+      <c r="B6" s="175"/>
       <c r="C6" s="23">
         <f>VLOOKUP(D6,Tabela3[#All],2,FALSE)</f>
         <v>15</v>
@@ -6706,27 +6721,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="172" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="175"/>
-    </row>
-    <row r="8" spans="1:12" ht="45" customHeight="1">
-      <c r="A8" s="180" t="s">
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="187"/>
+      <c r="K7" s="188"/>
+      <c r="L7" s="189"/>
+    </row>
+    <row r="8" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="161">
+      <c r="B8" s="175">
         <v>0.85763888888888884</v>
       </c>
       <c r="C8" s="23">
@@ -6765,15 +6780,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="180"/>
-      <c r="B9" s="161"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="194"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="23">
         <f>VLOOKUP(D9,Tabela3[#All],2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E9" s="23">
         <f>VLOOKUP(F9,Tabela3[#All],2,FALSE)</f>
@@ -6804,11 +6819,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="43.5" customHeight="1">
-      <c r="A10" s="180" t="s">
+    <row r="10" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="161">
+      <c r="B10" s="175">
         <v>0.89236111111111116</v>
       </c>
       <c r="C10" s="23">
@@ -6847,9 +6862,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A11" s="180"/>
-      <c r="B11" s="161"/>
+    <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="194"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="23">
         <f>VLOOKUP(D11,Tabela3[#All],2,FALSE)</f>
         <v>15</v>
@@ -6886,11 +6901,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="48" customHeight="1">
-      <c r="A12" s="180" t="s">
+    <row r="12" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="161">
+      <c r="B12" s="175">
         <v>0.92708333333333337</v>
       </c>
       <c r="C12" s="23">
@@ -6929,9 +6944,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16">
-      <c r="A13" s="181"/>
-      <c r="B13" s="182"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="195"/>
+      <c r="B13" s="196"/>
       <c r="C13" s="54">
         <f>VLOOKUP(D13,Tabela3[#All],2,FALSE)</f>
         <v>15</v>
@@ -6989,7 +7004,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B260D88-1534-477F-A60F-9891F0BC2563}">
           <x14:formula1>
-            <xm:f>Mock_Tables!$N$4:$N$9</xm:f>
+            <xm:f>Mock_Tables!$O$4:$O$9</xm:f>
           </x14:formula1>
           <xm:sqref>E1:L1</xm:sqref>
         </x14:dataValidation>
@@ -7031,9 +7046,9 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="22">
+    <row r="1" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -7047,21 +7062,21 @@
         <f>VLOOKUP(E1,Tabela36[#All],2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="E1" s="170" t="s">
+      <c r="E1" s="184" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="171"/>
-    </row>
-    <row r="2" spans="1:12" ht="17">
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="185"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="52">
         <f>VLOOKUP(B2,Tabela4[#All],2,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>66</v>
@@ -7097,11 +7112,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="68">
-      <c r="A3" s="180" t="s">
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="161">
+      <c r="B3" s="175">
         <v>0.78125</v>
       </c>
       <c r="C3" s="23">
@@ -7140,9 +7155,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16">
-      <c r="A4" s="180"/>
-      <c r="B4" s="161"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="194"/>
+      <c r="B4" s="175"/>
       <c r="C4" s="23">
         <f>VLOOKUP(D4,Tabela3[#All],2,FALSE)</f>
         <v>9</v>
@@ -7179,11 +7194,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="68">
-      <c r="A5" s="180" t="s">
+    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="161">
+      <c r="B5" s="175">
         <v>0.81597222222222221</v>
       </c>
       <c r="C5" s="23">
@@ -7222,9 +7237,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16">
-      <c r="A6" s="180"/>
-      <c r="B6" s="161"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="194"/>
+      <c r="B6" s="175"/>
       <c r="C6" s="23">
         <f>VLOOKUP(D6,Tabela3[#All],2,FALSE)</f>
         <v>9</v>
@@ -7261,27 +7276,27 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="172" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="175"/>
-    </row>
-    <row r="8" spans="1:12" ht="51">
-      <c r="A8" s="180" t="s">
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="187"/>
+      <c r="K7" s="188"/>
+      <c r="L7" s="189"/>
+    </row>
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="161">
+      <c r="B8" s="175">
         <v>0.85763888888888884</v>
       </c>
       <c r="C8" s="23">
@@ -7320,9 +7335,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="180"/>
-      <c r="B9" s="161"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="194"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="23">
         <f>VLOOKUP(D9,Tabela3[#All],2,FALSE)</f>
         <v>15</v>
@@ -7359,11 +7374,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="68">
-      <c r="A10" s="180" t="s">
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="161">
+      <c r="B10" s="175">
         <v>0.89236111111111116</v>
       </c>
       <c r="C10" s="23">
@@ -7402,9 +7417,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16">
-      <c r="A11" s="180"/>
-      <c r="B11" s="161"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="194"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="23">
         <f>VLOOKUP(D11,Tabela3[#All],2,FALSE)</f>
         <v>2</v>
@@ -7441,11 +7456,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="68">
-      <c r="A12" s="180" t="s">
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="161">
+      <c r="B12" s="175">
         <v>0.92708333333333337</v>
       </c>
       <c r="C12" s="23">
@@ -7481,12 +7496,12 @@
         <v>1</v>
       </c>
       <c r="L12" s="53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16">
-      <c r="A13" s="181"/>
-      <c r="B13" s="182"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="195"/>
+      <c r="B13" s="196"/>
       <c r="C13" s="54">
         <f>VLOOKUP(D13,Tabela3[#All],2,FALSE)</f>
         <v>2</v>
@@ -7520,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="56" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -7544,7 +7559,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F0F3054B-B247-4CF5-B8A9-D63E4569223C}">
           <x14:formula1>
-            <xm:f>Mock_Tables!$N$4:$N$9</xm:f>
+            <xm:f>Mock_Tables!$O$4:$O$9</xm:f>
           </x14:formula1>
           <xm:sqref>E1:L1</xm:sqref>
         </x14:dataValidation>
@@ -7580,13 +7595,13 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="35.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="63" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" style="63" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="16" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21.75" customHeight="1">
+    <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
@@ -7600,21 +7615,21 @@
         <f>VLOOKUP(E1,Tabela36[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="E1" s="170" t="s">
+      <c r="E1" s="184" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="171"/>
-    </row>
-    <row r="2" spans="1:12" ht="35.25" customHeight="1">
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="185"/>
+    </row>
+    <row r="2" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52">
         <f>VLOOKUP(B2,Tabela4[#All],2,FALSE)</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>75</v>
@@ -7650,11 +7665,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="35.25" customHeight="1">
-      <c r="A3" s="180" t="s">
+    <row r="3" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="161">
+      <c r="B3" s="175">
         <v>0.78125</v>
       </c>
       <c r="C3" s="23">
@@ -7693,9 +7708,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="35.25" customHeight="1">
-      <c r="A4" s="180"/>
-      <c r="B4" s="161"/>
+    <row r="4" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="194"/>
+      <c r="B4" s="175"/>
       <c r="C4" s="23" t="e">
         <f>VLOOKUP(D4,Tabela3[#All],2,FALSE)</f>
         <v>#N/A</v>
@@ -7732,11 +7747,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="35.25" customHeight="1">
-      <c r="A5" s="180" t="s">
+    <row r="5" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="161">
+      <c r="B5" s="175">
         <v>0.81597222222222221</v>
       </c>
       <c r="C5" s="23">
@@ -7775,9 +7790,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="35.25" customHeight="1">
-      <c r="A6" s="180"/>
-      <c r="B6" s="161"/>
+    <row r="6" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="194"/>
+      <c r="B6" s="175"/>
       <c r="C6" s="23" t="e">
         <f>VLOOKUP(D6,Tabela3[#All],2,FALSE)</f>
         <v>#N/A</v>
@@ -7814,27 +7829,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="35.25" customHeight="1">
-      <c r="A7" s="172" t="s">
+    <row r="7" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="175"/>
-    </row>
-    <row r="8" spans="1:12" ht="35.25" customHeight="1">
-      <c r="A8" s="180" t="s">
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="187"/>
+      <c r="K7" s="188"/>
+      <c r="L7" s="189"/>
+    </row>
+    <row r="8" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="161">
+      <c r="B8" s="175">
         <v>0.85763888888888884</v>
       </c>
       <c r="C8" s="23">
@@ -7873,9 +7888,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="35.25" customHeight="1">
-      <c r="A9" s="180"/>
-      <c r="B9" s="161"/>
+    <row r="9" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="194"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="23" t="e">
         <f>VLOOKUP(D9,Tabela3[#All],2,FALSE)</f>
         <v>#N/A</v>
@@ -7912,11 +7927,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="35.25" customHeight="1">
-      <c r="A10" s="180" t="s">
+    <row r="10" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="161">
+      <c r="B10" s="175">
         <v>0.89236111111111116</v>
       </c>
       <c r="C10" s="23">
@@ -7955,9 +7970,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="35.25" customHeight="1">
-      <c r="A11" s="180"/>
-      <c r="B11" s="161"/>
+    <row r="11" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="194"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="23" t="e">
         <f>VLOOKUP(D11,Tabela3[#All],2,FALSE)</f>
         <v>#N/A</v>
@@ -7994,11 +8009,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="35.25" customHeight="1">
-      <c r="A12" s="180" t="s">
+    <row r="12" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="161">
+      <c r="B12" s="175">
         <v>0.92708333333333337</v>
       </c>
       <c r="C12" s="23">
@@ -8037,9 +8052,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="35.25" customHeight="1">
-      <c r="A13" s="181"/>
-      <c r="B13" s="182"/>
+    <row r="13" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="195"/>
+      <c r="B13" s="196"/>
       <c r="C13" s="54" t="e">
         <f>VLOOKUP(D13,Tabela3[#All],2,FALSE)</f>
         <v>#N/A</v>
@@ -8097,7 +8112,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{76D33E44-8E19-4C30-BFB9-53DA67615974}">
           <x14:formula1>
-            <xm:f>Mock_Tables!$N$4:$N$9</xm:f>
+            <xm:f>Mock_Tables!$O$4:$O$9</xm:f>
           </x14:formula1>
           <xm:sqref>E1:L1</xm:sqref>
         </x14:dataValidation>
@@ -8133,13 +8148,13 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="63" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="14.6640625" style="63"/>
+    <col min="1" max="1" width="8.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="14.7109375" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" customHeight="1">
+    <row r="1" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
@@ -8153,21 +8168,21 @@
         <f>VLOOKUP(E1,Tabela36[#All],2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="E1" s="170" t="s">
+      <c r="E1" s="184" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="171"/>
-    </row>
-    <row r="2" spans="1:12" ht="17">
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="185"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="52">
         <f>VLOOKUP(B2,Tabela4[#All],2,FALSE)</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>84</v>
@@ -8203,11 +8218,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="34">
-      <c r="A3" s="180" t="s">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="161">
+      <c r="B3" s="175">
         <v>0.78125</v>
       </c>
       <c r="C3" s="23">
@@ -8243,12 +8258,12 @@
         <v>1</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="16">
-      <c r="A4" s="180"/>
-      <c r="B4" s="161"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="194"/>
+      <c r="B4" s="175"/>
       <c r="C4" s="23" t="e">
         <f>VLOOKUP(D4,Tabela3[#All],2,FALSE)</f>
         <v>#N/A</v>
@@ -8282,14 +8297,14 @@
         <v>1</v>
       </c>
       <c r="L4" s="56" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="51">
-      <c r="A5" s="180" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="161">
+      <c r="B5" s="175">
         <v>0.81597222222222221</v>
       </c>
       <c r="C5" s="23">
@@ -8328,9 +8343,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16">
-      <c r="A6" s="180"/>
-      <c r="B6" s="161"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="194"/>
+      <c r="B6" s="175"/>
       <c r="C6" s="23" t="e">
         <f>VLOOKUP(D6,Tabela3[#All],2,FALSE)</f>
         <v>#N/A</v>
@@ -8367,27 +8382,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="172" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="175"/>
-    </row>
-    <row r="8" spans="1:12" ht="51">
-      <c r="A8" s="180" t="s">
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="187"/>
+      <c r="K7" s="188"/>
+      <c r="L7" s="189"/>
+    </row>
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="161">
+      <c r="B8" s="175">
         <v>0.85763888888888884</v>
       </c>
       <c r="C8" s="23">
@@ -8426,9 +8441,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="180"/>
-      <c r="B9" s="161"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="194"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="23">
         <f>VLOOKUP(D9,Tabela3[#All],2,FALSE)</f>
         <v>2</v>
@@ -8465,11 +8480,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="51">
-      <c r="A10" s="180" t="s">
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="161">
+      <c r="B10" s="175">
         <v>0.89236111111111116</v>
       </c>
       <c r="C10" s="23">
@@ -8508,9 +8523,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16">
-      <c r="A11" s="180"/>
-      <c r="B11" s="161"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="194"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="23">
         <f>VLOOKUP(D11,Tabela3[#All],2,FALSE)</f>
         <v>16</v>
@@ -8547,11 +8562,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="51">
-      <c r="A12" s="180" t="s">
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="161">
+      <c r="B12" s="175">
         <v>0.92708333333333337</v>
       </c>
       <c r="C12" s="23">
@@ -8590,9 +8605,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16">
-      <c r="A13" s="181"/>
-      <c r="B13" s="182"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="195"/>
+      <c r="B13" s="196"/>
       <c r="C13" s="54">
         <f>VLOOKUP(D13,Tabela3[#All],2,FALSE)</f>
         <v>16</v>
@@ -8650,7 +8665,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2BFBBE32-6260-40B6-856F-6892C28AD4C2}">
           <x14:formula1>
-            <xm:f>Mock_Tables!$N$4:$N$9</xm:f>
+            <xm:f>Mock_Tables!$O$4:$O$9</xm:f>
           </x14:formula1>
           <xm:sqref>E1:L1</xm:sqref>
         </x14:dataValidation>
@@ -8686,151 +8701,160 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF6508E-B8F4-43C4-AACB-99409B526617}">
-  <dimension ref="B1:R48"/>
+  <dimension ref="B1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="42.5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="84"/>
-    <col min="4" max="4" width="2.5" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="157" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="84" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" style="84" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="84" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.5" customWidth="1"/>
-    <col min="14" max="14" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.83203125" style="84" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.5" customWidth="1"/>
-    <col min="17" max="17" width="15.5" customWidth="1"/>
-    <col min="18" max="18" width="15.5" style="84" customWidth="1"/>
-    <col min="16382" max="16384" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="84"/>
+    <col min="4" max="4" width="2.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="157" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="84" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
+    <col min="10" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="84" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="84" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.42578125" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="84" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.42578125" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" style="84" customWidth="1"/>
+    <col min="16383" max="16384" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:18" ht="35.5" customHeight="1">
-      <c r="B2" s="186" t="s">
+    <row r="1" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="200" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="188"/>
+      <c r="C2" s="201"/>
       <c r="D2" s="24"/>
-      <c r="E2" s="183" t="s">
+      <c r="E2" s="197" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="185"/>
-      <c r="J2" s="186" t="s">
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="199"/>
+      <c r="J2" s="197" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="187"/>
-      <c r="L2" s="188"/>
-      <c r="N2" s="183" t="s">
+      <c r="K2" s="198"/>
+      <c r="L2" s="198"/>
+      <c r="M2" s="199"/>
+      <c r="O2" s="197" t="s">
         <v>96</v>
       </c>
-      <c r="O2" s="185"/>
-      <c r="Q2" s="186" t="s">
+      <c r="P2" s="199"/>
+      <c r="R2" s="200" t="s">
         <v>97</v>
       </c>
-      <c r="R2" s="188"/>
-    </row>
-    <row r="3" spans="2:18">
+      <c r="S2" s="201"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="193" t="s">
+      <c r="C3" s="159" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="31"/>
-      <c r="E3" s="198" t="s">
+      <c r="E3" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="197" t="s">
+      <c r="F3" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="196" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" s="199" t="s">
+      <c r="G3" s="162" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="165" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="207" t="s">
+        <v>174</v>
+      </c>
+      <c r="L3" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="161" t="s">
+        <v>175</v>
+      </c>
+      <c r="N3" s="31"/>
+      <c r="O3" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="P3" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" s="158" t="s">
+      <c r="S3" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="193" t="s">
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="158" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="160">
+        <f>ROW() - 3</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="169" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="42">
+        <f>ROW() - 3</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="40">
+        <v>5</v>
+      </c>
+      <c r="I4" s="39"/>
+      <c r="J4" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="M3" s="31"/>
-      <c r="N3" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="O3" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="64" t="s">
+      <c r="K4" s="208">
+        <v>2</v>
+      </c>
+      <c r="L4" s="206">
+        <v>1</v>
+      </c>
+      <c r="M4" s="44">
+        <v>31</v>
+      </c>
+      <c r="N4" s="39"/>
+      <c r="O4" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="44">
+        <v>1</v>
+      </c>
+      <c r="R4" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="193" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="B4" s="192" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="194">
-        <f>ROW() - 3</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="206" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="201">
-        <f>ROW() - 3</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="202" t="s">
-        <v>149</v>
-      </c>
-      <c r="H4" s="203"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" s="42">
-        <v>1</v>
-      </c>
-      <c r="L4" s="87">
-        <v>31</v>
-      </c>
-      <c r="M4" s="39"/>
-      <c r="N4" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="44">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="R4" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18">
+      <c r="S4" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="65" t="s">
         <v>44</v>
       </c>
@@ -8839,44 +8863,47 @@
         <v>2</v>
       </c>
       <c r="D5" s="39"/>
-      <c r="E5" s="208" t="s">
+      <c r="E5" s="171" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="201">
+      <c r="F5" s="42">
         <f t="shared" ref="F5:F22" si="1">ROW() - 3</f>
         <v>2</v>
       </c>
-      <c r="G5" s="202" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" s="203">
-        <v>0</v>
+      <c r="G5" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="40">
+        <v>5</v>
       </c>
       <c r="I5" s="39"/>
-      <c r="J5" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="K5" s="42">
-        <v>2</v>
-      </c>
-      <c r="L5" s="87">
+      <c r="J5" s="169" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="208">
+        <v>2</v>
+      </c>
+      <c r="L5" s="206">
+        <v>2</v>
+      </c>
+      <c r="M5" s="44">
         <v>31</v>
       </c>
-      <c r="M5" s="39"/>
-      <c r="N5" s="41" t="s">
+      <c r="N5" s="39"/>
+      <c r="O5" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="44">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="86" t="s">
-        <v>106</v>
-      </c>
-      <c r="R5" s="87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18">
+      <c r="P5" s="44">
+        <v>2</v>
+      </c>
+      <c r="R5" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="S5" s="87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="65" t="s">
         <v>10</v>
       </c>
@@ -8885,42 +8912,47 @@
         <v>3</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="E6" s="208" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="201">
+      <c r="E6" s="171" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="42">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G6" s="202" t="s">
-        <v>153</v>
-      </c>
-      <c r="H6" s="203"/>
+      <c r="G6" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="40">
+        <v>5</v>
+      </c>
       <c r="I6" s="39"/>
-      <c r="J6" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="K6" s="42">
+      <c r="J6" s="169" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="208">
+        <v>1</v>
+      </c>
+      <c r="L6" s="206">
         <v>3</v>
       </c>
-      <c r="L6" s="87">
+      <c r="M6" s="44">
         <v>31</v>
       </c>
-      <c r="M6" s="39"/>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="39"/>
+      <c r="O6" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="44">
+      <c r="P6" s="44">
         <v>3</v>
       </c>
-      <c r="Q6" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="R6" s="87">
+      <c r="R6" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="S6" s="87">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="65" t="s">
         <v>7</v>
       </c>
@@ -8929,42 +8961,47 @@
         <v>4</v>
       </c>
       <c r="D7" s="39"/>
-      <c r="E7" s="208" t="s">
+      <c r="E7" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="201">
+      <c r="F7" s="42">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G7" s="202" t="s">
-        <v>154</v>
-      </c>
-      <c r="H7" s="203"/>
+      <c r="G7" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="40">
+        <v>5</v>
+      </c>
       <c r="I7" s="39"/>
-      <c r="J7" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="42">
+      <c r="J7" s="169" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="208">
+        <v>1</v>
+      </c>
+      <c r="L7" s="206">
         <v>4</v>
       </c>
-      <c r="L7" s="87">
+      <c r="M7" s="44">
         <v>31</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="41" t="s">
+      <c r="N7" s="39"/>
+      <c r="O7" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="44">
+      <c r="P7" s="44">
         <v>4</v>
       </c>
-      <c r="Q7" s="86" t="s">
-        <v>110</v>
-      </c>
-      <c r="R7" s="87">
+      <c r="R7" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="S7" s="87">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="16" thickBot="1">
+    <row r="8" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="65" t="s">
         <v>68</v>
       </c>
@@ -8973,42 +9010,47 @@
         <v>5</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="E8" s="208" t="s">
-        <v>168</v>
-      </c>
-      <c r="F8" s="201">
+      <c r="E8" s="171" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="42">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G8" s="202" t="s">
-        <v>155</v>
-      </c>
-      <c r="H8" s="203"/>
+      <c r="G8" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="40">
+        <v>5</v>
+      </c>
       <c r="I8" s="39"/>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="208">
+        <v>2</v>
+      </c>
+      <c r="L8" s="206">
         <v>5</v>
       </c>
-      <c r="L8" s="87">
+      <c r="M8" s="44">
         <v>31</v>
       </c>
-      <c r="M8" s="39"/>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="39"/>
+      <c r="O8" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="O8" s="44">
+      <c r="P8" s="44">
         <v>5</v>
       </c>
-      <c r="Q8" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="R8" s="89">
+      <c r="R8" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="S8" s="89">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="16" thickBot="1">
+    <row r="9" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="65" t="s">
         <v>54</v>
       </c>
@@ -9017,36 +9059,41 @@
         <v>6</v>
       </c>
       <c r="D9" s="39"/>
-      <c r="E9" s="208" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" s="201">
+      <c r="E9" s="171" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="42">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G9" s="202" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="203"/>
+      <c r="G9" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="40">
+        <v>5</v>
+      </c>
       <c r="I9" s="39"/>
-      <c r="J9" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="K9" s="42">
+      <c r="J9" s="169" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="208">
+        <v>2</v>
+      </c>
+      <c r="L9" s="206">
         <v>6</v>
       </c>
-      <c r="L9" s="87">
+      <c r="M9" s="44">
         <v>31</v>
       </c>
-      <c r="M9" s="39"/>
-      <c r="N9" s="43" t="s">
+      <c r="N9" s="39"/>
+      <c r="O9" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="O9" s="45">
+      <c r="P9" s="45">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="65" t="s">
         <v>49</v>
       </c>
@@ -9055,31 +9102,36 @@
         <v>7</v>
       </c>
       <c r="D10" s="39"/>
-      <c r="E10" s="208" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="201">
+      <c r="E10" s="171" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="42">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G10" s="202" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" s="203"/>
+      <c r="G10" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="40">
+        <v>5</v>
+      </c>
       <c r="I10" s="39"/>
-      <c r="J10" s="65" t="s">
+      <c r="J10" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="208">
+        <v>1</v>
+      </c>
+      <c r="L10" s="206">
         <v>7</v>
       </c>
-      <c r="L10" s="87">
+      <c r="M10" s="44">
         <v>31</v>
       </c>
-      <c r="M10" s="39"/>
-      <c r="O10" s="42"/>
-    </row>
-    <row r="11" spans="2:18">
+      <c r="N10" s="39"/>
+      <c r="P10" s="42"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="65" t="s">
         <v>50</v>
       </c>
@@ -9088,31 +9140,36 @@
         <v>8</v>
       </c>
       <c r="D11" s="39"/>
-      <c r="E11" s="200" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="201">
+      <c r="E11" s="166" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="42">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G11" s="201" t="s">
-        <v>158</v>
-      </c>
-      <c r="H11" s="203"/>
+      <c r="G11" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" s="40">
+        <v>5</v>
+      </c>
       <c r="I11" s="39"/>
-      <c r="J11" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" s="42">
+      <c r="J11" s="169" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="208">
+        <v>1</v>
+      </c>
+      <c r="L11" s="206">
         <v>8</v>
       </c>
-      <c r="L11" s="87">
+      <c r="M11" s="44">
         <v>31</v>
       </c>
-      <c r="M11" s="39"/>
-      <c r="O11" s="42"/>
-    </row>
-    <row r="12" spans="2:18">
+      <c r="N11" s="39"/>
+      <c r="P11" s="42"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="65" t="s">
         <v>63</v>
       </c>
@@ -9121,31 +9178,36 @@
         <v>9</v>
       </c>
       <c r="D12" s="39"/>
-      <c r="E12" s="208" t="s">
+      <c r="E12" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="201">
+      <c r="F12" s="42">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G12" s="202" t="s">
-        <v>159</v>
-      </c>
-      <c r="H12" s="203"/>
+      <c r="G12" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="40">
+        <v>5</v>
+      </c>
       <c r="I12" s="39"/>
-      <c r="J12" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" s="42">
+      <c r="J12" s="169" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="208">
+        <v>2</v>
+      </c>
+      <c r="L12" s="206">
         <v>9</v>
       </c>
-      <c r="L12" s="87">
+      <c r="M12" s="44">
         <v>31</v>
       </c>
-      <c r="M12" s="39"/>
-      <c r="O12" s="42"/>
-    </row>
-    <row r="13" spans="2:18">
+      <c r="N12" s="39"/>
+      <c r="P12" s="42"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="65" t="s">
         <v>67</v>
       </c>
@@ -9154,31 +9216,36 @@
         <v>10</v>
       </c>
       <c r="D13" s="39"/>
-      <c r="E13" s="208" t="s">
-        <v>172</v>
-      </c>
-      <c r="F13" s="201">
+      <c r="E13" s="171" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="42">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G13" s="202" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" s="203"/>
+      <c r="G13" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="40">
+        <v>5</v>
+      </c>
       <c r="I13" s="39"/>
-      <c r="J13" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="K13" s="42">
+      <c r="J13" s="169" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" s="208">
+        <v>2</v>
+      </c>
+      <c r="L13" s="206">
         <v>10</v>
       </c>
-      <c r="L13" s="87">
+      <c r="M13" s="44">
         <v>31</v>
       </c>
-      <c r="M13" s="39"/>
-      <c r="O13" s="42"/>
-    </row>
-    <row r="14" spans="2:18">
+      <c r="N13" s="39"/>
+      <c r="P13" s="42"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="65" t="s">
         <v>51</v>
       </c>
@@ -9187,31 +9254,36 @@
         <v>11</v>
       </c>
       <c r="D14" s="39"/>
-      <c r="E14" s="208" t="s">
+      <c r="E14" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="201">
+      <c r="F14" s="42">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G14" s="202" t="s">
-        <v>161</v>
-      </c>
-      <c r="H14" s="203"/>
+      <c r="G14" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="40">
+        <v>5</v>
+      </c>
       <c r="I14" s="39"/>
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="169" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="42">
+      <c r="K14" s="208">
+        <v>1</v>
+      </c>
+      <c r="L14" s="206">
         <v>11</v>
       </c>
-      <c r="L14" s="87">
+      <c r="M14" s="44">
         <v>31</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="O14" s="42"/>
-    </row>
-    <row r="15" spans="2:18">
+      <c r="N14" s="39"/>
+      <c r="P14" s="42"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="65" t="s">
         <v>58</v>
       </c>
@@ -9220,31 +9292,36 @@
         <v>12</v>
       </c>
       <c r="D15" s="39"/>
-      <c r="E15" s="208" t="s">
+      <c r="E15" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="201">
+      <c r="F15" s="42">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G15" s="202" t="s">
-        <v>162</v>
-      </c>
-      <c r="H15" s="203"/>
+      <c r="G15" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="40">
+        <v>5</v>
+      </c>
       <c r="I15" s="39"/>
-      <c r="J15" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="42">
+      <c r="J15" s="169" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="208">
+        <v>1</v>
+      </c>
+      <c r="L15" s="206">
         <v>12</v>
       </c>
-      <c r="L15" s="87">
+      <c r="M15" s="44">
         <v>31</v>
       </c>
-      <c r="M15" s="39"/>
-      <c r="O15" s="42"/>
-    </row>
-    <row r="16" spans="2:18">
+      <c r="N15" s="39"/>
+      <c r="P15" s="42"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="65" t="s">
         <v>69</v>
       </c>
@@ -9253,31 +9330,36 @@
         <v>13</v>
       </c>
       <c r="D16" s="39"/>
-      <c r="E16" s="208" t="s">
+      <c r="E16" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="201">
+      <c r="F16" s="42">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G16" s="202" t="s">
-        <v>163</v>
-      </c>
-      <c r="H16" s="203"/>
+      <c r="G16" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="40">
+        <v>5</v>
+      </c>
       <c r="I16" s="39"/>
-      <c r="J16" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="K16" s="42">
+      <c r="J16" s="169" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" s="208">
+        <v>2</v>
+      </c>
+      <c r="L16" s="206">
         <v>13</v>
       </c>
-      <c r="L16" s="87">
+      <c r="M16" s="44">
         <v>31</v>
       </c>
-      <c r="M16" s="39"/>
-      <c r="O16" s="42"/>
-    </row>
-    <row r="17" spans="2:15">
+      <c r="N16" s="39"/>
+      <c r="P16" s="42"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="65" t="s">
         <v>60</v>
       </c>
@@ -9286,31 +9368,36 @@
         <v>14</v>
       </c>
       <c r="D17" s="39"/>
-      <c r="E17" s="208" t="s">
+      <c r="E17" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="201">
+      <c r="F17" s="42">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="G17" s="201" t="s">
-        <v>164</v>
-      </c>
-      <c r="H17" s="203"/>
+      <c r="G17" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" s="40">
+        <v>5</v>
+      </c>
       <c r="I17" s="39"/>
-      <c r="J17" s="65" t="s">
+      <c r="J17" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="208">
+        <v>2</v>
+      </c>
+      <c r="L17" s="206">
         <v>14</v>
       </c>
-      <c r="L17" s="87">
+      <c r="M17" s="44">
         <v>31</v>
       </c>
-      <c r="M17" s="39"/>
-      <c r="O17" s="42"/>
-    </row>
-    <row r="18" spans="2:15">
+      <c r="N17" s="39"/>
+      <c r="P17" s="42"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="65" t="s">
         <v>57</v>
       </c>
@@ -9319,31 +9406,36 @@
         <v>15</v>
       </c>
       <c r="D18" s="39"/>
-      <c r="E18" s="200" t="s">
+      <c r="E18" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="201">
+      <c r="F18" s="42">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G18" s="202" t="s">
-        <v>165</v>
-      </c>
-      <c r="H18" s="203"/>
+      <c r="G18" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="40">
+        <v>5</v>
+      </c>
       <c r="I18" s="39"/>
-      <c r="J18" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="K18" s="42">
+      <c r="J18" s="169" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="208">
+        <v>1</v>
+      </c>
+      <c r="L18" s="206">
         <v>15</v>
       </c>
-      <c r="L18" s="87">
+      <c r="M18" s="44">
         <v>31</v>
       </c>
-      <c r="M18" s="39"/>
-      <c r="O18" s="42"/>
-    </row>
-    <row r="19" spans="2:15">
+      <c r="N18" s="39"/>
+      <c r="P18" s="42"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="65" t="s">
         <v>41</v>
       </c>
@@ -9352,31 +9444,36 @@
         <v>16</v>
       </c>
       <c r="D19" s="39"/>
-      <c r="E19" s="208" t="s">
+      <c r="E19" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="201">
+      <c r="F19" s="42">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G19" s="201" t="s">
-        <v>149</v>
-      </c>
-      <c r="H19" s="203"/>
+      <c r="G19" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="40">
+        <v>5</v>
+      </c>
       <c r="I19" s="39"/>
-      <c r="J19" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="K19" s="42">
+      <c r="J19" s="169" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="208">
+        <v>1</v>
+      </c>
+      <c r="L19" s="206">
         <v>16</v>
       </c>
-      <c r="L19" s="87">
+      <c r="M19" s="44">
         <v>31</v>
       </c>
-      <c r="M19" s="39"/>
-      <c r="O19" s="42"/>
-    </row>
-    <row r="20" spans="2:15">
+      <c r="N19" s="39"/>
+      <c r="P19" s="42"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="65" t="s">
         <v>53</v>
       </c>
@@ -9385,31 +9482,36 @@
         <v>17</v>
       </c>
       <c r="D20" s="39"/>
-      <c r="E20" s="200" t="s">
-        <v>173</v>
-      </c>
-      <c r="F20" s="201">
+      <c r="E20" s="166" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="42">
         <f>ROW() - 3</f>
         <v>17</v>
       </c>
-      <c r="G20" s="201" t="s">
+      <c r="G20" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="203"/>
+      <c r="H20" s="40">
+        <v>5</v>
+      </c>
       <c r="I20" s="39"/>
-      <c r="J20" s="65" t="s">
+      <c r="J20" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="208">
+        <v>2</v>
+      </c>
+      <c r="L20" s="206">
         <v>17</v>
       </c>
-      <c r="L20" s="87">
+      <c r="M20" s="44">
         <v>31</v>
       </c>
-      <c r="M20" s="39"/>
-      <c r="O20" s="42"/>
-    </row>
-    <row r="21" spans="2:15">
+      <c r="N20" s="39"/>
+      <c r="P20" s="42"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="65" t="s">
         <v>59</v>
       </c>
@@ -9418,31 +9520,36 @@
         <v>18</v>
       </c>
       <c r="D21" s="39"/>
-      <c r="E21" s="208" t="s">
-        <v>148</v>
-      </c>
-      <c r="F21" s="201">
+      <c r="E21" s="171" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="42">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="G21" s="201" t="s">
-        <v>149</v>
-      </c>
-      <c r="H21" s="203"/>
+      <c r="G21" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="40">
+        <v>5</v>
+      </c>
       <c r="I21" s="39"/>
-      <c r="J21" s="65" t="s">
+      <c r="J21" s="169" t="s">
         <v>75</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="208">
+        <v>2</v>
+      </c>
+      <c r="L21" s="206">
         <v>18</v>
       </c>
-      <c r="L21" s="87">
+      <c r="M21" s="44">
         <v>31</v>
       </c>
-      <c r="M21" s="39"/>
-      <c r="O21" s="42"/>
-    </row>
-    <row r="22" spans="2:15" ht="16" thickBot="1">
+      <c r="N21" s="39"/>
+      <c r="P21" s="42"/>
+    </row>
+    <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="65" t="s">
         <v>73</v>
       </c>
@@ -9451,31 +9558,36 @@
         <v>19</v>
       </c>
       <c r="D22" s="39"/>
-      <c r="E22" s="209" t="s">
-        <v>174</v>
-      </c>
-      <c r="F22" s="204">
+      <c r="E22" s="172" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="167">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="G22" s="207" t="s">
-        <v>166</v>
-      </c>
-      <c r="H22" s="205"/>
+      <c r="G22" s="170" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" s="168">
+        <v>5</v>
+      </c>
       <c r="I22" s="39"/>
-      <c r="J22" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="K22" s="42">
+      <c r="J22" s="169" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" s="208">
+        <v>1</v>
+      </c>
+      <c r="L22" s="206">
         <v>19</v>
       </c>
-      <c r="L22" s="87">
+      <c r="M22" s="44">
         <v>31</v>
       </c>
-      <c r="M22" s="39"/>
-      <c r="O22" s="42"/>
-    </row>
-    <row r="23" spans="2:15">
+      <c r="N22" s="39"/>
+      <c r="P22" s="42"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="65" t="s">
         <v>64</v>
       </c>
@@ -9485,19 +9597,22 @@
       </c>
       <c r="D23" s="39"/>
       <c r="I23" s="39"/>
-      <c r="J23" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="K23" s="42">
+      <c r="J23" s="169" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="208">
+        <v>1</v>
+      </c>
+      <c r="L23" s="206">
         <v>20</v>
       </c>
-      <c r="L23" s="87">
+      <c r="M23" s="44">
         <v>31</v>
       </c>
-      <c r="M23" s="39"/>
-      <c r="O23" s="42"/>
-    </row>
-    <row r="24" spans="2:15">
+      <c r="N23" s="39"/>
+      <c r="P23" s="42"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="65" t="s">
         <v>45</v>
       </c>
@@ -9507,19 +9622,22 @@
       </c>
       <c r="D24" s="39"/>
       <c r="I24" s="39"/>
-      <c r="J24" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="K24" s="42">
+      <c r="J24" s="169" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="208">
+        <v>2</v>
+      </c>
+      <c r="L24" s="206">
         <v>21</v>
       </c>
-      <c r="L24" s="87">
+      <c r="M24" s="44">
         <v>31</v>
       </c>
-      <c r="M24" s="39"/>
-      <c r="O24" s="42"/>
-    </row>
-    <row r="25" spans="2:15">
+      <c r="N24" s="39"/>
+      <c r="P24" s="42"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="65" t="s">
         <v>52</v>
       </c>
@@ -9529,19 +9647,22 @@
       </c>
       <c r="D25" s="39"/>
       <c r="I25" s="39"/>
-      <c r="J25" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="K25" s="42">
+      <c r="J25" s="169" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25" s="208">
+        <v>2</v>
+      </c>
+      <c r="L25" s="206">
         <v>22</v>
       </c>
-      <c r="L25" s="87">
+      <c r="M25" s="44">
         <v>31</v>
       </c>
-      <c r="M25" s="39"/>
-      <c r="O25" s="42"/>
-    </row>
-    <row r="26" spans="2:15">
+      <c r="N25" s="39"/>
+      <c r="P25" s="42"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="65" t="s">
         <v>43</v>
       </c>
@@ -9551,19 +9672,22 @@
       </c>
       <c r="D26" s="39"/>
       <c r="I26" s="39"/>
-      <c r="J26" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="K26" s="42">
+      <c r="J26" s="169" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="208">
+        <v>2</v>
+      </c>
+      <c r="L26" s="206">
         <v>23</v>
       </c>
-      <c r="L26" s="87">
+      <c r="M26" s="44">
         <v>31</v>
       </c>
-      <c r="M26" s="39"/>
-      <c r="O26" s="42"/>
-    </row>
-    <row r="27" spans="2:15">
+      <c r="N26" s="39"/>
+      <c r="P26" s="42"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="65" t="s">
         <v>72</v>
       </c>
@@ -9573,19 +9697,22 @@
       </c>
       <c r="D27" s="39"/>
       <c r="I27" s="39"/>
-      <c r="J27" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="K27" s="42">
+      <c r="J27" s="169" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" s="208">
+        <v>2</v>
+      </c>
+      <c r="L27" s="206">
         <v>24</v>
       </c>
-      <c r="L27" s="87">
+      <c r="M27" s="44">
         <v>31</v>
       </c>
-      <c r="M27" s="39"/>
-      <c r="O27" s="42"/>
-    </row>
-    <row r="28" spans="2:15">
+      <c r="N27" s="39"/>
+      <c r="P27" s="42"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="65" t="s">
         <v>42</v>
       </c>
@@ -9595,19 +9722,22 @@
       </c>
       <c r="D28" s="39"/>
       <c r="I28" s="39"/>
-      <c r="J28" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="K28" s="42">
+      <c r="J28" s="169" t="s">
+        <v>124</v>
+      </c>
+      <c r="K28" s="208">
+        <v>1</v>
+      </c>
+      <c r="L28" s="206">
         <v>25</v>
       </c>
-      <c r="L28" s="87">
+      <c r="M28" s="44">
         <v>31</v>
       </c>
-      <c r="M28" s="39"/>
-      <c r="O28" s="42"/>
-    </row>
-    <row r="29" spans="2:15" ht="16" thickBot="1">
+      <c r="N28" s="39"/>
+      <c r="P28" s="42"/>
+    </row>
+    <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="65" t="s">
         <v>70</v>
       </c>
@@ -9617,19 +9747,22 @@
       </c>
       <c r="D29" s="39"/>
       <c r="I29" s="39"/>
-      <c r="J29" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="K29" s="99">
+      <c r="J29" s="209" t="s">
+        <v>125</v>
+      </c>
+      <c r="K29" s="170">
+        <v>1</v>
+      </c>
+      <c r="L29" s="167">
         <v>26</v>
       </c>
-      <c r="L29" s="89">
+      <c r="M29" s="45">
         <v>31</v>
       </c>
-      <c r="M29" s="39"/>
-      <c r="O29" s="42"/>
-    </row>
-    <row r="30" spans="2:15">
+      <c r="N29" s="39"/>
+      <c r="P29" s="42"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="65" t="s">
         <v>48</v>
       </c>
@@ -9639,10 +9772,10 @@
       </c>
       <c r="D30" s="39"/>
       <c r="I30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="O30" s="42"/>
-    </row>
-    <row r="31" spans="2:15">
+      <c r="N30" s="39"/>
+      <c r="P30" s="42"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="65" t="s">
         <v>61</v>
       </c>
@@ -9652,10 +9785,10 @@
       </c>
       <c r="D31" s="39"/>
       <c r="I31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="O31" s="42"/>
-    </row>
-    <row r="32" spans="2:15">
+      <c r="N31" s="39"/>
+      <c r="P31" s="42"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="65" t="s">
         <v>71</v>
       </c>
@@ -9665,10 +9798,10 @@
       </c>
       <c r="D32" s="39"/>
       <c r="I32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="O32" s="42"/>
-    </row>
-    <row r="33" spans="2:3">
+      <c r="N32" s="39"/>
+      <c r="P32" s="42"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="65" t="s">
         <v>62</v>
       </c>
@@ -9677,7 +9810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="65" t="s">
         <v>76</v>
       </c>
@@ -9686,7 +9819,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="65" t="s">
         <v>82</v>
       </c>
@@ -9695,7 +9828,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="65" t="s">
         <v>90</v>
       </c>
@@ -9704,7 +9837,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="65" t="s">
         <v>78</v>
       </c>
@@ -9713,7 +9846,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="65" t="s">
         <v>79</v>
       </c>
@@ -9722,7 +9855,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="15" customHeight="1">
+    <row r="39" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="65" t="s">
         <v>77</v>
       </c>
@@ -9731,7 +9864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="15" customHeight="1">
+    <row r="40" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="65" t="s">
         <v>80</v>
       </c>
@@ -9740,7 +9873,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="15" customHeight="1">
+    <row r="41" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="65" t="s">
         <v>81</v>
       </c>
@@ -9749,7 +9882,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="15" customHeight="1">
+    <row r="42" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="65" t="s">
         <v>85</v>
       </c>
@@ -9758,7 +9891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="15" customHeight="1">
+    <row r="43" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="65" t="s">
         <v>91</v>
       </c>
@@ -9767,7 +9900,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="15" customHeight="1">
+    <row r="44" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="65" t="s">
         <v>86</v>
       </c>
@@ -9776,7 +9909,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="15" customHeight="1">
+    <row r="45" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="65" t="s">
         <v>88</v>
       </c>
@@ -9785,7 +9918,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="15" customHeight="1">
+    <row r="46" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="65" t="s">
         <v>92</v>
       </c>
@@ -9794,7 +9927,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="15" customHeight="1">
+    <row r="47" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="65" t="s">
         <v>87</v>
       </c>
@@ -9803,7 +9936,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="15" customHeight="1" thickBot="1">
+    <row r="48" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="67" t="s">
         <v>89</v>
       </c>
@@ -9816,10 +9949,10 @@
   <dataConsolidate/>
   <mergeCells count="5">
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="R2:S2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -9838,82 +9971,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB7505B-2AF9-4414-ADC6-862F6066D7C6}">
   <dimension ref="A1:T152"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="39"/>
+    <col min="1" max="1" width="9.140625" style="39"/>
     <col min="2" max="2" width="5" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="149" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="149" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="42" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="39"/>
-    <col min="13" max="13" width="9.1640625" style="39" customWidth="1"/>
-    <col min="14" max="14" width="5.1640625" style="39" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" style="39" customWidth="1"/>
-    <col min="16" max="16384" width="9.1640625" style="39"/>
+    <col min="8" max="8" width="12.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="39"/>
+    <col min="13" max="13" width="9.140625" style="39" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" style="39" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="39" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="26">
-      <c r="B1" s="189" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="191"/>
-    </row>
-    <row r="2" spans="1:20">
+    <row r="1" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="202" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="204"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" s="141" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="149" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="G2" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="42" t="s">
+      <c r="H2" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="99" t="s">
+      <c r="I2" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="J2" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="K2" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="J2" s="39" t="s">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="129" t="s">
         <v>136</v>
-      </c>
-      <c r="K2" s="66" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="129" t="s">
-        <v>138</v>
       </c>
       <c r="B3" s="113">
         <v>1</v>
@@ -9941,18 +10074,18 @@
       </c>
       <c r="I3" s="101">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J3" s="103" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K3" s="104" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B4" s="117">
         <v>2</v>
@@ -9980,27 +10113,27 @@
       </c>
       <c r="I4" s="42">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J4" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="M4" s="39" t="s">
+      <c r="N4" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="O4" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="N4" s="39" t="s">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="132" t="s">
         <v>142</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="132" t="s">
-        <v>144</v>
       </c>
       <c r="B5" s="123">
         <v>3</v>
@@ -10028,13 +10161,13 @@
       </c>
       <c r="I5" s="42">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K5" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M5" s="39">
         <v>3</v>
@@ -10048,9 +10181,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="131" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B6" s="117">
         <v>4</v>
@@ -10078,13 +10211,13 @@
       </c>
       <c r="I6" s="42">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K6" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M6" s="39">
         <v>5</v>
@@ -10098,9 +10231,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="132" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7" s="123">
         <f t="shared" ref="B7:B68" si="0">B6+1</f>
@@ -10129,13 +10262,13 @@
       </c>
       <c r="I7" s="42">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K7" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M7" s="39">
         <v>8</v>
@@ -10149,9 +10282,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="131" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" s="117">
         <f t="shared" si="0"/>
@@ -10180,13 +10313,13 @@
       </c>
       <c r="I8" s="42">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K8" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M8" s="39">
         <v>10</v>
@@ -10200,9 +10333,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="132" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B9" s="123">
         <f t="shared" si="0"/>
@@ -10231,13 +10364,13 @@
       </c>
       <c r="I9" s="42">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K9" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M9" s="39">
         <v>12</v>
@@ -10259,9 +10392,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="131" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B10" s="117">
         <f t="shared" si="0"/>
@@ -10290,13 +10423,13 @@
       </c>
       <c r="I10" s="42">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J10" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K10" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S10" s="107">
         <f>BASE!P12</f>
@@ -10307,9 +10440,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B11" s="123">
         <f t="shared" si="0"/>
@@ -10338,13 +10471,13 @@
       </c>
       <c r="I11" s="42">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J11" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K11" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S11" s="108">
         <f>BASE!P15</f>
@@ -10355,9 +10488,9 @@
         <v>0.78125</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="131" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B12" s="117">
         <f t="shared" si="0"/>
@@ -10386,13 +10519,13 @@
       </c>
       <c r="I12" s="42">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K12" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S12" s="107">
         <f>BASE!P17</f>
@@ -10403,9 +10536,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="132" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B13" s="123">
         <f t="shared" si="0"/>
@@ -10434,13 +10567,13 @@
       </c>
       <c r="I13" s="42">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J13" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K13" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S13" s="108">
         <f>BASE!P19</f>
@@ -10451,9 +10584,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B14" s="117">
         <f t="shared" si="0"/>
@@ -10482,13 +10615,13 @@
       </c>
       <c r="I14" s="42">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K14" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S14" s="107">
         <f>BASE!R10</f>
@@ -10499,9 +10632,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="132" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15" s="123">
         <f t="shared" si="0"/>
@@ -10530,13 +10663,13 @@
       </c>
       <c r="I15" s="148">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K15" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S15" s="108">
         <f>BASE!R12</f>
@@ -10547,9 +10680,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="131" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B16" s="117">
         <f t="shared" si="0"/>
@@ -10578,13 +10711,13 @@
       </c>
       <c r="I16" s="42">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K16" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S16" s="107">
         <f>BASE!R15</f>
@@ -10595,9 +10728,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="132" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B17" s="123">
         <f t="shared" si="0"/>
@@ -10626,13 +10759,13 @@
       </c>
       <c r="I17" s="42">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J17" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K17" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S17" s="108">
         <f>BASE!R17</f>
@@ -10643,9 +10776,9 @@
         <v>Redes de Computadore      Jean</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="131" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B18" s="117">
         <f t="shared" si="0"/>
@@ -10674,13 +10807,13 @@
       </c>
       <c r="I18" s="42">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J18" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K18" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S18" s="107">
         <f>BASE!R19</f>
@@ -10691,9 +10824,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="132" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B19" s="123">
         <f t="shared" si="0"/>
@@ -10722,13 +10855,13 @@
       </c>
       <c r="I19" s="42">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J19" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K19" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S19" s="108">
         <f>BASE!T10</f>
@@ -10739,9 +10872,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="131" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B20" s="117">
         <f t="shared" si="0"/>
@@ -10770,13 +10903,13 @@
       </c>
       <c r="I20" s="42">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J20" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K20" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S20" s="107">
         <f>BASE!T12</f>
@@ -10787,9 +10920,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="132" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B21" s="123">
         <f t="shared" si="0"/>
@@ -10818,13 +10951,13 @@
       </c>
       <c r="I21" s="42">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J21" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K21" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S21" s="108">
         <f>BASE!T15</f>
@@ -10835,9 +10968,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="131" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B22" s="117">
         <f t="shared" si="0"/>
@@ -10866,13 +10999,13 @@
       </c>
       <c r="I22" s="42">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J22" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K22" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S22" s="107">
         <f>BASE!T17</f>
@@ -10883,9 +11016,9 @@
         <v>Sistemas Distribuidos        Jean</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="132" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B23" s="123">
         <f t="shared" si="0"/>
@@ -10914,13 +11047,13 @@
       </c>
       <c r="I23" s="42">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J23" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K23" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S23" s="108">
         <f>BASE!T19</f>
@@ -10931,9 +11064,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B24" s="117">
         <f t="shared" si="0"/>
@@ -10962,13 +11095,13 @@
       </c>
       <c r="I24" s="42">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J24" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K24" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S24" s="107">
         <f>BASE!V10</f>
@@ -10979,9 +11112,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="133" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B25" s="142">
         <f t="shared" si="0"/>
@@ -11010,13 +11143,13 @@
       </c>
       <c r="I25" s="42">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J25" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K25" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S25" s="108">
         <f>BASE!V12</f>
@@ -11027,9 +11160,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="131" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B26" s="117">
         <f t="shared" si="0"/>
@@ -11058,13 +11191,13 @@
       </c>
       <c r="I26" s="42">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J26" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K26" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S26" s="107">
         <f>BASE!V15</f>
@@ -11075,9 +11208,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="134" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B27" s="143">
         <f t="shared" si="0"/>
@@ -11106,13 +11239,13 @@
       </c>
       <c r="I27" s="99">
         <f>'1_SEMESTRE'!A2</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J27" s="85" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K27" s="68" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S27" s="108">
         <f>BASE!V17</f>
@@ -11123,9 +11256,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="129" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B28" s="113">
         <f t="shared" si="0"/>
@@ -11154,13 +11287,13 @@
       </c>
       <c r="I28" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J28" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K28" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S28" s="107">
         <f>BASE!V19</f>
@@ -11171,9 +11304,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B29" s="117">
         <f t="shared" si="0"/>
@@ -11201,13 +11334,13 @@
       </c>
       <c r="I29" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J29" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K29" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S29" s="108">
         <f>BASE!X10</f>
@@ -11218,9 +11351,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="132" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B30" s="123">
         <f t="shared" si="0"/>
@@ -11248,13 +11381,13 @@
       </c>
       <c r="I30" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J30" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K30" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S30" s="107">
         <f>BASE!X12</f>
@@ -11265,9 +11398,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="131" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B31" s="117">
         <f t="shared" si="0"/>
@@ -11295,13 +11428,13 @@
       </c>
       <c r="I31" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J31" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K31" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S31" s="108">
         <f>BASE!X15</f>
@@ -11312,9 +11445,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="132" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B32" s="123">
         <f t="shared" si="0"/>
@@ -11342,13 +11475,13 @@
       </c>
       <c r="I32" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J32" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K32" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S32" s="107">
         <f>BASE!X17</f>
@@ -11359,9 +11492,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="131" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B33" s="117">
         <f t="shared" si="0"/>
@@ -11389,13 +11522,13 @@
       </c>
       <c r="I33" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J33" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K33" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S33" s="111">
         <f>BASE!X19</f>
@@ -11406,9 +11539,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="132" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B34" s="123">
         <f t="shared" si="0"/>
@@ -11436,18 +11569,18 @@
       </c>
       <c r="I34" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J34" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K34" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="131" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B35" s="117">
         <f t="shared" si="0"/>
@@ -11475,18 +11608,18 @@
       </c>
       <c r="I35" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J35" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K35" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="132" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B36" s="123">
         <f t="shared" si="0"/>
@@ -11514,18 +11647,18 @@
       </c>
       <c r="I36" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J36" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K36" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="131" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B37" s="117">
         <f t="shared" si="0"/>
@@ -11553,18 +11686,18 @@
       </c>
       <c r="I37" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J37" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K37" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="132" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B38" s="123">
         <f t="shared" si="0"/>
@@ -11592,18 +11725,18 @@
       </c>
       <c r="I38" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J38" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K38" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B39" s="117">
         <f t="shared" si="0"/>
@@ -11631,18 +11764,18 @@
       </c>
       <c r="I39" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J39" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K39" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="132" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B40" s="123">
         <f t="shared" si="0"/>
@@ -11670,18 +11803,18 @@
       </c>
       <c r="I40" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J40" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K40" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="131" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B41" s="117">
         <f t="shared" si="0"/>
@@ -11709,18 +11842,18 @@
       </c>
       <c r="I41" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J41" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K41" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="132" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B42" s="123">
         <f t="shared" si="0"/>
@@ -11748,18 +11881,18 @@
       </c>
       <c r="I42" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J42" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K42" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="131" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B43" s="117">
         <f t="shared" si="0"/>
@@ -11787,18 +11920,18 @@
       </c>
       <c r="I43" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J43" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K43" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="132" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B44" s="123">
         <f t="shared" si="0"/>
@@ -11826,18 +11959,18 @@
       </c>
       <c r="I44" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J44" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K44" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="131" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B45" s="117">
         <f t="shared" si="0"/>
@@ -11865,18 +11998,18 @@
       </c>
       <c r="I45" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J45" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K45" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="132" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B46" s="123">
         <f t="shared" si="0"/>
@@ -11904,18 +12037,18 @@
       </c>
       <c r="I46" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J46" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K46" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="131" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B47" s="117">
         <f t="shared" si="0"/>
@@ -11943,18 +12076,18 @@
       </c>
       <c r="I47" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J47" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K47" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="132" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B48" s="123">
         <f t="shared" si="0"/>
@@ -11982,18 +12115,18 @@
       </c>
       <c r="I48" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J48" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K48" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B49" s="117">
         <f t="shared" si="0"/>
@@ -12021,18 +12154,18 @@
       </c>
       <c r="I49" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J49" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K49" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="133" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B50" s="142">
         <f t="shared" si="0"/>
@@ -12060,18 +12193,18 @@
       </c>
       <c r="I50" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J50" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K50" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="131" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B51" s="117">
         <f t="shared" si="0"/>
@@ -12099,18 +12232,18 @@
       </c>
       <c r="I51" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J51" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K51" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="134" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B52" s="143">
         <f t="shared" si="0"/>
@@ -12138,18 +12271,18 @@
       </c>
       <c r="I52" s="42">
         <f>'2_SEMESTRE'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J52" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K52" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="129" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B53" s="113">
         <f t="shared" si="0"/>
@@ -12177,18 +12310,18 @@
       </c>
       <c r="I53" s="101">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J53" s="103" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K53" s="104" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B54" s="117">
         <f t="shared" si="0"/>
@@ -12216,18 +12349,18 @@
       </c>
       <c r="I54" s="42">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J54" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K54" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="132" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B55" s="123">
         <f t="shared" si="0"/>
@@ -12255,18 +12388,18 @@
       </c>
       <c r="I55" s="42">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J55" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K55" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="131" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B56" s="117">
         <f t="shared" si="0"/>
@@ -12294,18 +12427,18 @@
       </c>
       <c r="I56" s="42">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J56" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K56" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="132" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B57" s="123">
         <f t="shared" si="0"/>
@@ -12333,18 +12466,18 @@
       </c>
       <c r="I57" s="42">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J57" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K57" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="131" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B58" s="117">
         <f t="shared" si="0"/>
@@ -12372,18 +12505,18 @@
       </c>
       <c r="I58" s="42">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J58" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K58" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="132" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B59" s="123">
         <f t="shared" si="0"/>
@@ -12411,18 +12544,18 @@
       </c>
       <c r="I59" s="42">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J59" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K59" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="131" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B60" s="117">
         <f t="shared" si="0"/>
@@ -12450,18 +12583,18 @@
       </c>
       <c r="I60" s="42">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J60" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K60" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="132" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B61" s="123">
         <f t="shared" si="0"/>
@@ -12489,18 +12622,18 @@
       </c>
       <c r="I61" s="42">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J61" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K61" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="131" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B62" s="117">
         <f t="shared" si="0"/>
@@ -12528,18 +12661,18 @@
       </c>
       <c r="I62" s="42">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J62" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K62" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="132" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B63" s="123">
         <f t="shared" si="0"/>
@@ -12567,18 +12700,18 @@
       </c>
       <c r="I63" s="42">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J63" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K63" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B64" s="117">
         <f t="shared" si="0"/>
@@ -12606,18 +12739,18 @@
       </c>
       <c r="I64" s="42">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J64" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K64" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="132" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B65" s="123">
         <f t="shared" si="0"/>
@@ -12645,18 +12778,18 @@
       </c>
       <c r="I65" s="42">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J65" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K65" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="131" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B66" s="117">
         <f t="shared" si="0"/>
@@ -12684,18 +12817,18 @@
       </c>
       <c r="I66" s="42">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J66" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K66" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="132" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B67" s="123">
         <f t="shared" si="0"/>
@@ -12723,18 +12856,18 @@
       </c>
       <c r="I67" s="42">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J67" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K67" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="131" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B68" s="117">
         <f t="shared" si="0"/>
@@ -12762,18 +12895,18 @@
       </c>
       <c r="I68" s="42">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J68" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K68" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="132" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B69" s="123">
         <f t="shared" ref="B69:B132" si="1">B68+1</f>
@@ -12800,18 +12933,18 @@
       </c>
       <c r="I69" s="42">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J69" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K69" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="131" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B70" s="117">
         <f t="shared" si="1"/>
@@ -12838,18 +12971,18 @@
       </c>
       <c r="I70" s="42">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J70" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K70" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="132" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B71" s="123">
         <f t="shared" si="1"/>
@@ -12876,18 +13009,18 @@
       </c>
       <c r="I71" s="42">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J71" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K71" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="131" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B72" s="117">
         <f t="shared" si="1"/>
@@ -12914,18 +13047,18 @@
       </c>
       <c r="I72" s="42">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J72" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K72" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="132" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B73" s="123">
         <f t="shared" si="1"/>
@@ -12953,18 +13086,18 @@
       </c>
       <c r="I73" s="42">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J73" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K73" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B74" s="117">
         <f t="shared" si="1"/>
@@ -12992,18 +13125,18 @@
       </c>
       <c r="I74" s="42">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J74" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K74" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="133" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B75" s="142">
         <f t="shared" si="1"/>
@@ -13031,18 +13164,18 @@
       </c>
       <c r="I75" s="42">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J75" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K75" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="131" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B76" s="117">
         <f t="shared" si="1"/>
@@ -13070,18 +13203,18 @@
       </c>
       <c r="I76" s="42">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J76" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K76" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="134" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B77" s="143">
         <f t="shared" si="1"/>
@@ -13109,18 +13242,18 @@
       </c>
       <c r="I77" s="99">
         <f>'3_SEMESTRE'!A2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J77" s="85" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K77" s="68" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="129" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B78" s="113">
         <f t="shared" si="1"/>
@@ -13148,18 +13281,18 @@
       </c>
       <c r="I78" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J78" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K78" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B79" s="117">
         <f t="shared" si="1"/>
@@ -13187,18 +13320,18 @@
       </c>
       <c r="I79" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J79" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K79" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="132" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B80" s="123">
         <f t="shared" si="1"/>
@@ -13226,18 +13359,18 @@
       </c>
       <c r="I80" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J80" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K80" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="131" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B81" s="117">
         <f t="shared" si="1"/>
@@ -13265,18 +13398,18 @@
       </c>
       <c r="I81" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J81" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K81" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="132" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B82" s="123">
         <f t="shared" si="1"/>
@@ -13304,18 +13437,18 @@
       </c>
       <c r="I82" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J82" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K82" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="131" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B83" s="117">
         <f t="shared" si="1"/>
@@ -13343,18 +13476,18 @@
       </c>
       <c r="I83" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J83" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K83" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="132" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B84" s="123">
         <f t="shared" si="1"/>
@@ -13382,18 +13515,18 @@
       </c>
       <c r="I84" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J84" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K84" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="131" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B85" s="117">
         <f t="shared" si="1"/>
@@ -13421,18 +13554,18 @@
       </c>
       <c r="I85" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J85" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K85" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="132" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B86" s="123">
         <f t="shared" si="1"/>
@@ -13460,18 +13593,18 @@
       </c>
       <c r="I86" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J86" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K86" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="131" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B87" s="117">
         <f t="shared" si="1"/>
@@ -13499,18 +13632,18 @@
       </c>
       <c r="I87" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J87" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K87" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="132" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B88" s="123">
         <f t="shared" si="1"/>
@@ -13538,18 +13671,18 @@
       </c>
       <c r="I88" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J88" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K88" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B89" s="117">
         <f t="shared" si="1"/>
@@ -13577,18 +13710,18 @@
       </c>
       <c r="I89" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J89" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K89" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="132" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B90" s="123">
         <f t="shared" si="1"/>
@@ -13616,18 +13749,18 @@
       </c>
       <c r="I90" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J90" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K90" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="131" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B91" s="117">
         <f t="shared" si="1"/>
@@ -13655,18 +13788,18 @@
       </c>
       <c r="I91" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J91" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K91" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="132" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B92" s="123">
         <f t="shared" si="1"/>
@@ -13694,18 +13827,18 @@
       </c>
       <c r="I92" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J92" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K92" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="131" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B93" s="117">
         <f t="shared" si="1"/>
@@ -13733,18 +13866,18 @@
       </c>
       <c r="I93" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J93" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K93" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="132" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B94" s="123">
         <f t="shared" si="1"/>
@@ -13772,18 +13905,18 @@
       </c>
       <c r="I94" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J94" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K94" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="131" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B95" s="117">
         <f t="shared" si="1"/>
@@ -13811,18 +13944,18 @@
       </c>
       <c r="I95" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J95" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K95" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="132" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B96" s="123">
         <f t="shared" si="1"/>
@@ -13850,18 +13983,18 @@
       </c>
       <c r="I96" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J96" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K96" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="131" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B97" s="117">
         <f t="shared" si="1"/>
@@ -13889,18 +14022,18 @@
       </c>
       <c r="I97" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J97" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K97" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="132" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B98" s="123">
         <f t="shared" si="1"/>
@@ -13928,18 +14061,18 @@
       </c>
       <c r="I98" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J98" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K98" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B99" s="117">
         <f t="shared" si="1"/>
@@ -13967,18 +14100,18 @@
       </c>
       <c r="I99" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J99" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K99" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="133" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B100" s="142">
         <f t="shared" si="1"/>
@@ -14006,18 +14139,18 @@
       </c>
       <c r="I100" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J100" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K100" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="131" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B101" s="117">
         <f t="shared" si="1"/>
@@ -14045,18 +14178,18 @@
       </c>
       <c r="I101" s="42">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J101" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K101" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="134" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B102" s="143">
         <f t="shared" si="1"/>
@@ -14084,18 +14217,18 @@
       </c>
       <c r="I102" s="99">
         <f>'4_SEMESTRE'!A2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J102" s="85" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K102" s="68" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="129" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B103" s="113">
         <f t="shared" si="1"/>
@@ -14123,18 +14256,18 @@
       </c>
       <c r="I103" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J103" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K103" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B104" s="117">
         <f t="shared" si="1"/>
@@ -14162,18 +14295,18 @@
       </c>
       <c r="I104" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J104" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K104" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="132" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B105" s="123">
         <f t="shared" si="1"/>
@@ -14201,18 +14334,18 @@
       </c>
       <c r="I105" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J105" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K105" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="131" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B106" s="117">
         <f t="shared" si="1"/>
@@ -14240,18 +14373,18 @@
       </c>
       <c r="I106" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J106" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K106" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="132" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B107" s="123">
         <f t="shared" si="1"/>
@@ -14279,18 +14412,18 @@
       </c>
       <c r="I107" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J107" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K107" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="131" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B108" s="117">
         <f t="shared" si="1"/>
@@ -14318,18 +14451,18 @@
       </c>
       <c r="I108" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J108" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K108" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="132" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B109" s="123">
         <f t="shared" si="1"/>
@@ -14357,18 +14490,18 @@
       </c>
       <c r="I109" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J109" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K109" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="131" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B110" s="117">
         <f t="shared" si="1"/>
@@ -14396,18 +14529,18 @@
       </c>
       <c r="I110" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J110" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K110" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="132" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B111" s="123">
         <f t="shared" si="1"/>
@@ -14435,18 +14568,18 @@
       </c>
       <c r="I111" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J111" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K111" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="131" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B112" s="117">
         <f t="shared" si="1"/>
@@ -14474,18 +14607,18 @@
       </c>
       <c r="I112" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J112" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K112" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="132" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B113" s="123">
         <f t="shared" si="1"/>
@@ -14513,18 +14646,18 @@
       </c>
       <c r="I113" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J113" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K113" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B114" s="117">
         <f t="shared" si="1"/>
@@ -14552,18 +14685,18 @@
       </c>
       <c r="I114" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J114" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K114" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="132" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B115" s="123">
         <f t="shared" si="1"/>
@@ -14591,18 +14724,18 @@
       </c>
       <c r="I115" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J115" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K115" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="131" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B116" s="117">
         <f t="shared" si="1"/>
@@ -14630,18 +14763,18 @@
       </c>
       <c r="I116" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J116" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K116" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="132" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B117" s="123">
         <f t="shared" si="1"/>
@@ -14669,18 +14802,18 @@
       </c>
       <c r="I117" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J117" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K117" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="131" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B118" s="117">
         <f t="shared" si="1"/>
@@ -14708,18 +14841,18 @@
       </c>
       <c r="I118" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J118" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K118" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="132" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B119" s="123">
         <f t="shared" si="1"/>
@@ -14747,18 +14880,18 @@
       </c>
       <c r="I119" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J119" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K119" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="131" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B120" s="117">
         <f t="shared" si="1"/>
@@ -14786,18 +14919,18 @@
       </c>
       <c r="I120" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J120" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K120" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="132" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B121" s="123">
         <f t="shared" si="1"/>
@@ -14825,18 +14958,18 @@
       </c>
       <c r="I121" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J121" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K121" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="131" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B122" s="117">
         <f t="shared" si="1"/>
@@ -14864,18 +14997,18 @@
       </c>
       <c r="I122" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J122" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K122" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="132" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B123" s="123">
         <f t="shared" si="1"/>
@@ -14903,18 +15036,18 @@
       </c>
       <c r="I123" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J123" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K123" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B124" s="117">
         <f t="shared" si="1"/>
@@ -14942,18 +15075,18 @@
       </c>
       <c r="I124" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J124" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K124" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="133" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B125" s="142">
         <f t="shared" si="1"/>
@@ -14981,18 +15114,18 @@
       </c>
       <c r="I125" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J125" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K125" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="131" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B126" s="117">
         <f t="shared" si="1"/>
@@ -15020,18 +15153,18 @@
       </c>
       <c r="I126" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J126" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K126" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="134" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B127" s="143">
         <f t="shared" si="1"/>
@@ -15059,18 +15192,18 @@
       </c>
       <c r="I127" s="42">
         <f>'5_SEMESTRE'!A2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J127" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K127" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="129" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B128" s="113">
         <f t="shared" si="1"/>
@@ -15098,18 +15231,18 @@
       </c>
       <c r="I128" s="113">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J128" s="114" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K128" s="115" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B129" s="117">
         <f t="shared" si="1"/>
@@ -15137,18 +15270,18 @@
       </c>
       <c r="I129" s="117">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J129" s="118" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K129" s="119" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="132" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B130" s="123">
         <f t="shared" si="1"/>
@@ -15176,18 +15309,18 @@
       </c>
       <c r="I130" s="123">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J130" s="121" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K130" s="122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="131" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B131" s="117">
         <f t="shared" si="1"/>
@@ -15215,18 +15348,18 @@
       </c>
       <c r="I131" s="117">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J131" s="118" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K131" s="119" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="132" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B132" s="123">
         <f t="shared" si="1"/>
@@ -15254,18 +15387,18 @@
       </c>
       <c r="I132" s="123">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J132" s="121" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K132" s="122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="131" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B133" s="117">
         <f t="shared" ref="B133:B152" si="2">B132+1</f>
@@ -15293,18 +15426,18 @@
       </c>
       <c r="I133" s="117">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J133" s="118" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K133" s="119" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="132" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B134" s="123">
         <f t="shared" si="2"/>
@@ -15332,18 +15465,18 @@
       </c>
       <c r="I134" s="123">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J134" s="121" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K134" s="122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="131" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B135" s="117">
         <f t="shared" si="2"/>
@@ -15371,18 +15504,18 @@
       </c>
       <c r="I135" s="117">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J135" s="118" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K135" s="119" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="132" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B136" s="123">
         <f t="shared" si="2"/>
@@ -15410,18 +15543,18 @@
       </c>
       <c r="I136" s="123">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J136" s="121" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K136" s="122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="131" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B137" s="117">
         <f t="shared" si="2"/>
@@ -15449,18 +15582,18 @@
       </c>
       <c r="I137" s="117">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J137" s="118" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K137" s="119" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="132" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B138" s="123">
         <f t="shared" si="2"/>
@@ -15488,18 +15621,18 @@
       </c>
       <c r="I138" s="123">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J138" s="121" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K138" s="122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B139" s="117">
         <f t="shared" si="2"/>
@@ -15527,18 +15660,18 @@
       </c>
       <c r="I139" s="117">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J139" s="118" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K139" s="119" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="132" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B140" s="123">
         <f t="shared" si="2"/>
@@ -15566,18 +15699,18 @@
       </c>
       <c r="I140" s="123">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J140" s="121" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K140" s="122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="131" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B141" s="117">
         <f t="shared" si="2"/>
@@ -15605,18 +15738,18 @@
       </c>
       <c r="I141" s="117">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J141" s="118" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K141" s="119" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="132" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B142" s="123">
         <f t="shared" si="2"/>
@@ -15644,18 +15777,18 @@
       </c>
       <c r="I142" s="123">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J142" s="121" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K142" s="122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="131" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B143" s="117">
         <f t="shared" si="2"/>
@@ -15683,18 +15816,18 @@
       </c>
       <c r="I143" s="117">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J143" s="118" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K143" s="119" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="132" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B144" s="123">
         <f t="shared" si="2"/>
@@ -15722,18 +15855,18 @@
       </c>
       <c r="I144" s="123">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J144" s="121" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K144" s="122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="131" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B145" s="117">
         <f t="shared" si="2"/>
@@ -15761,18 +15894,18 @@
       </c>
       <c r="I145" s="117">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J145" s="118" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K145" s="119" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="132" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B146" s="123">
         <f t="shared" si="2"/>
@@ -15800,18 +15933,18 @@
       </c>
       <c r="I146" s="123">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J146" s="121" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K146" s="122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="131" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B147" s="117">
         <f t="shared" si="2"/>
@@ -15839,18 +15972,18 @@
       </c>
       <c r="I147" s="117">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J147" s="118" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K147" s="119" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="132" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B148" s="123">
         <f t="shared" si="2"/>
@@ -15878,18 +16011,18 @@
       </c>
       <c r="I148" s="123">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J148" s="121" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K148" s="122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B149" s="117">
         <f t="shared" si="2"/>
@@ -15917,18 +16050,18 @@
       </c>
       <c r="I149" s="117">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J149" s="118" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K149" s="119" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="133" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B150" s="142">
         <f t="shared" si="2"/>
@@ -15956,18 +16089,18 @@
       </c>
       <c r="I150" s="142">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J150" s="125" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K150" s="126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="131" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B151" s="117">
         <f t="shared" si="2"/>
@@ -15995,18 +16128,18 @@
       </c>
       <c r="I151" s="117">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J151" s="118" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K151" s="119" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="134" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B152" s="143">
         <f t="shared" si="2"/>
@@ -16034,13 +16167,13 @@
       </c>
       <c r="I152" s="137">
         <f>'6_SEMESTRE'!A2</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J152" s="139" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K152" s="140" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
